--- a/results_cnn_subnetwork_evaluation/PLV_subnetwork_separate_node_index/summary_plv.xlsx
+++ b/results_cnn_subnetwork_evaluation/PLV_subnetwork_separate_node_index/summary_plv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PLV_subnetwork_separate_node_index\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_residual\results_cnn_subnetwork_evaluation\PLV_subnetwork_separate_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA2DAF3-4F83-4A48-AE0D-1BD6EA0A6D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F868267-88C8-4920-820D-59D94026962E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="633" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="633" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plv_Residual&amp;Competitors" sheetId="11" r:id="rId1"/>
@@ -195,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,12 +217,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -414,13 +408,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,30 +476,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -541,7 +506,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -550,12 +530,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -833,1316 +810,1387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B9E2AD-B27D-44F5-B52F-A3DA851B8214}">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15" style="10" customWidth="1"/>
-    <col min="3" max="10" width="9" style="10"/>
-    <col min="11" max="12" width="15" style="10" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="10"/>
+    <col min="1" max="2" width="15" style="5" customWidth="1"/>
+    <col min="3" max="10" width="9" style="5"/>
+    <col min="11" max="12" width="15" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="3">
         <v>0.75</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="3">
         <v>0.5</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="3">
         <v>0.3</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="3">
         <v>0.2</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="3">
         <v>0.1</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="1">
         <v>1</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="3">
         <v>0.75</v>
       </c>
-      <c r="O1" s="8">
+      <c r="O1" s="3">
         <v>0.5</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1" s="3">
         <v>0.3</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="Q1" s="3">
         <v>0.2</v>
       </c>
-      <c r="R1" s="7">
+      <c r="R1" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="40">
+      <c r="B2" s="32"/>
+      <c r="C2" s="13">
         <v>93.273358766079312</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="14">
         <v>91.615587793435367</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="14">
         <v>90.62053304959386</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="14">
         <v>86.59751381932368</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="14">
         <v>78.22435026831262</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="15">
         <v>60.854992978601317</v>
       </c>
-      <c r="I2" s="9" cm="1">
+      <c r="I2" s="4" cm="1">
         <f t="array" ref="I2">-SUMPRODUCT((D1:H1-C1:G1)*(C2:G2+D2:H2)/2)</f>
         <v>78.807498478937248</v>
       </c>
-      <c r="J2" s="10" t="str">
+      <c r="J2" s="5" t="str">
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:H2)&amp;","</f>
         <v xml:space="preserve">    93.2733587660793, 91.6155877934354, 90.6205330495939, 86.5975138193237, 78.2243502683126, 60.8549929786013,</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="40">
+      <c r="L2" s="32"/>
+      <c r="M2" s="13">
         <v>3.4672469457762647</v>
       </c>
-      <c r="N2" s="41">
+      <c r="N2" s="14">
         <v>4.1066373858138912</v>
       </c>
-      <c r="O2" s="41">
+      <c r="O2" s="14">
         <v>4.4433442831389707</v>
       </c>
-      <c r="P2" s="41">
+      <c r="P2" s="14">
         <v>4.8572661690244194</v>
       </c>
-      <c r="Q2" s="41">
+      <c r="Q2" s="14">
         <v>6.7334065011993722</v>
       </c>
-      <c r="R2" s="42">
+      <c r="R2" s="15">
         <v>9.3055912140758643</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="43">
+      <c r="B3" s="32"/>
+      <c r="C3" s="19">
         <v>91.183040799084182</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="5">
         <v>90.993376528632041</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="5">
         <v>89.575994025323183</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="5">
         <v>87.075747483398061</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="5">
         <v>84.502634105831376</v>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="7">
         <v>64.535713976764512</v>
       </c>
-      <c r="I3" s="9" cm="1">
+      <c r="I3" s="4" cm="1">
         <f t="array" ref="I3">-SUMPRODUCT((D1:H1-C1:G1)*(C3:G3+D3:H3)/2)</f>
         <v>79.039234119672329</v>
       </c>
-      <c r="J3" s="10" t="str">
+      <c r="J3" s="5" t="str">
         <f t="shared" ref="J3:J6" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:H3)&amp;","</f>
         <v xml:space="preserve">    91.1830407990842, 90.993376528632, 89.5759940253232, 87.0757474833981, 84.5026341058314, 64.5357139767645,</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="53"/>
-      <c r="M3" s="36">
+      <c r="L3" s="32"/>
+      <c r="M3" s="9">
         <v>3.6304356896667822</v>
       </c>
-      <c r="N3" s="38">
+      <c r="N3" s="10">
         <v>4.1563832177869031</v>
       </c>
-      <c r="O3" s="38">
+      <c r="O3" s="10">
         <v>5.199169452154365</v>
       </c>
-      <c r="P3" s="38">
+      <c r="P3" s="10">
         <v>6.7300098038020417</v>
       </c>
-      <c r="Q3" s="38">
+      <c r="Q3" s="10">
         <v>6.9700930926995044</v>
       </c>
-      <c r="R3" s="39">
+      <c r="R3" s="11">
         <v>10.29776577193992</v>
       </c>
-      <c r="S3" s="37"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="9" cm="1">
+      <c r="B4" s="32"/>
+      <c r="C4" s="5">
+        <v>90.664120508539568</v>
+      </c>
+      <c r="D4" s="5">
+        <v>90.478199061698916</v>
+      </c>
+      <c r="E4" s="5">
+        <v>90.524586429525058</v>
+      </c>
+      <c r="F4" s="5">
+        <v>89.185007367422472</v>
+      </c>
+      <c r="G4" s="5">
+        <v>86.609875517954293</v>
+      </c>
+      <c r="H4" s="5">
+        <v>73.33662344253267</v>
+      </c>
+      <c r="I4" s="4" cm="1">
         <f t="array" ref="I4">-SUMPRODUCT((D1:H1-C1:G1)*(C4:G4+D4:H4)/2)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="str">
+        <v>80.026166604670735</v>
+      </c>
+      <c r="J4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-      <c r="K4" s="52" t="s">
+        <v xml:space="preserve">    90.6641205085396, 90.4781990616989, 90.5245864295251, 89.1850073674225, 86.6098755179543, 73.3366234425327,</v>
+      </c>
+      <c r="K4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="5">
+        <v>3.5401754285279829</v>
+      </c>
+      <c r="N4" s="5">
+        <v>3.9174920258854611</v>
+      </c>
+      <c r="O4" s="5">
+        <v>3.9698130808052361</v>
+      </c>
+      <c r="P4" s="5">
+        <v>5.5336035606832699</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>5.8457163898602484</v>
+      </c>
+      <c r="R4" s="5">
+        <v>7.6914890661564108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="19">
         <v>92.198796414040501</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="5">
         <v>92.414992055871295</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="5">
         <v>92.060072607317821</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="5">
         <v>89.38247447353929</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="5">
         <v>84.585936441203344</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="7">
         <v>66.764098305348668</v>
       </c>
-      <c r="I5" s="9" cm="1">
+      <c r="I5" s="4" cm="1">
         <f t="array" ref="I5">-SUMPRODUCT((D1:H1-C1:G1)*(C5:G5+D5:H5)/2)</f>
         <v>80.546283632788075</v>
       </c>
-      <c r="J5" s="10" t="str">
+      <c r="J5" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    92.1987964140405, 92.4149920558713, 92.0600726073178, 89.3824744735393, 84.5859364412033, 66.7640983053487,</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="19">
         <v>4.0920825520660458</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="5">
         <v>3.6811518659313718</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="5">
         <v>3.85785796812947</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="5">
         <v>5.1846446465102227</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="5">
         <v>5.651552347343773</v>
       </c>
-      <c r="R5" s="44">
+      <c r="R5" s="7">
         <v>9.7038681323141347</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="21">
         <v>93.422812192723697</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="22">
         <v>91.884967286337556</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="22">
         <v>91.219278136777405</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="22">
         <v>89.511307767944942</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="22">
         <v>85.221786808997777</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="23">
         <v>69.864136656314784</v>
       </c>
-      <c r="I6" s="9" cm="1">
+      <c r="I6" s="4" cm="1">
         <f t="array" ref="I6">-SUMPRODUCT((D1:H1-C1:G1)*(C6:G6+D6:H6)/2)</f>
         <v>80.615512605357026</v>
       </c>
-      <c r="J6" s="10" t="str">
+      <c r="J6" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">    93.4228121927237, 91.8849672863376, 91.2192781367774, 89.5113077679449, 85.2217868089978, 69.8641366563148,</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="21">
         <v>3.2252513660301281</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="22">
         <v>3.7972946157850411</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="22">
         <v>3.2633028119927521</v>
       </c>
-      <c r="P6" s="46">
+      <c r="P6" s="22">
         <v>3.255882546679346</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="22">
         <v>5.2317157915617392</v>
       </c>
-      <c r="R6" s="47">
+      <c r="R6" s="23">
         <v>7.5625760189743341</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="9"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="20"/>
-    </row>
-    <row r="8" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="4"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="9"/>
-      <c r="K8" s="54" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="4"/>
+      <c r="K8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="56"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="35"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="9" cm="1">
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="4" cm="1">
         <f t="array" ref="I9">-SUMPRODUCT((D1:H1-C1:G1)*(C9:G9+D9:H9)/2)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="10" t="str">
+      <c r="J9" s="5" t="str">
         <f t="shared" ref="J9:J15" si="1">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:H9)&amp;","</f>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="K9" s="60" t="s">
+      <c r="K9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="61"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="20"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="23" t="s">
+      <c r="L9" s="40"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="9" cm="1">
+      <c r="C10" s="19"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="4" cm="1">
         <f t="array" ref="I10">-SUMPRODUCT((D1:H1-C1:G1)*(C10:G10+D10:H10)/2)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="10" t="str">
+      <c r="J10" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="K10" s="48" t="s">
+      <c r="K10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="49"/>
-      <c r="M10" s="24"/>
-      <c r="R10" s="12"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
-      <c r="B11" s="23" t="s">
+      <c r="L10" s="42"/>
+      <c r="M10" s="19"/>
+      <c r="R10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="37"/>
+      <c r="B11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="9" cm="1">
+      <c r="C11" s="19"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="4" cm="1">
         <f t="array" ref="I11">-SUMPRODUCT((D1:H1-C1:G1)*(C11:G11+D11:H11)/2)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="10" t="str">
+      <c r="J11" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="K11" s="48" t="s">
+      <c r="K11" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="49"/>
-      <c r="M11" s="24"/>
-      <c r="R11" s="12"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
-      <c r="B12" s="23" t="s">
+      <c r="L11" s="42"/>
+      <c r="M11" s="19"/>
+      <c r="R11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="37"/>
+      <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="9" cm="1">
+      <c r="C12" s="19"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="4" cm="1">
         <f t="array" ref="I12">-SUMPRODUCT((D1:H1-C1:G1)*(C12:G12+D12:H12)/2)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="10" t="str">
+      <c r="J12" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="K12" s="48" t="s">
+      <c r="K12" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="24"/>
-      <c r="R12" s="12"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
-      <c r="B13" s="23" t="s">
+      <c r="L12" s="42"/>
+      <c r="M12" s="19"/>
+      <c r="R12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="9" cm="1">
+      <c r="C13" s="19"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="4" cm="1">
         <f t="array" ref="I13">-SUMPRODUCT((D1:H1-C1:G1)*(C13:G13+D13:H13)/2)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="10" t="str">
+      <c r="J13" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="K13" s="48" t="s">
+      <c r="K13" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="49"/>
-      <c r="M13" s="24"/>
-      <c r="R13" s="12"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
-      <c r="B14" s="23" t="s">
+      <c r="L13" s="42"/>
+      <c r="M13" s="19"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="9" cm="1">
+      <c r="C14" s="19"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="4" cm="1">
         <f t="array" ref="I14">-SUMPRODUCT((D1:H1-C1:G1)*(C14:G14+D14:H14)/2)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="10" t="str">
+      <c r="J14" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="24"/>
-      <c r="R14" s="12"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="11" t="s">
+      <c r="L14" s="42"/>
+      <c r="M14" s="19"/>
+      <c r="R14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="9" cm="1">
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="4" cm="1">
         <f t="array" ref="I15">-SUMPRODUCT((D1:H1-C1:G1)*(C15:G15+D15:H15)/2)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="10" t="str">
+      <c r="J15" s="5" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="K15" s="50" t="s">
+      <c r="K15" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="51"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="28"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="9"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="9"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="28"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="23"/>
+    </row>
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="4"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="4"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="9"/>
-      <c r="K17" s="54" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="4"/>
+      <c r="K17" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="35"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="9" cm="1">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="4" cm="1">
         <f t="array" ref="I18">-SUMPRODUCT((D1:H1-C1:G1)*(C18:G18+D18:H18)/2)</f>
         <v>0</v>
       </c>
-      <c r="J18" s="10" t="str">
+      <c r="J18" s="5" t="str">
         <f t="shared" ref="J18:J24" si="2">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C18:H18)&amp;","</f>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="K18" s="57" t="s">
+      <c r="K18" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="20"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="15"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="9" cm="1">
+      <c r="H19" s="7"/>
+      <c r="I19" s="4" cm="1">
         <f t="array" ref="I19">-SUMPRODUCT((D1:H1-C1:G1)*(C19:G19+D19:H19)/2)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="10" t="str">
+      <c r="J19" s="5" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="K19" s="58"/>
-      <c r="L19" s="22" t="s">
+      <c r="K19" s="37"/>
+      <c r="L19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="R19" s="12"/>
+      <c r="R19" s="7"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="9" cm="1">
+      <c r="H20" s="7"/>
+      <c r="I20" s="4" cm="1">
         <f t="array" ref="I20">-SUMPRODUCT((D1:H1-C1:G1)*(C20:G20+D20:H20)/2)</f>
         <v>0</v>
       </c>
-      <c r="J20" s="10" t="str">
+      <c r="J20" s="5" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="K20" s="58"/>
-      <c r="L20" s="22" t="s">
+      <c r="K20" s="37"/>
+      <c r="L20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="R20" s="12"/>
+      <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="9" cm="1">
+      <c r="H21" s="7"/>
+      <c r="I21" s="4" cm="1">
         <f t="array" ref="I21">-SUMPRODUCT((D1:H1-C1:G1)*(C21:G21+D21:H21)/2)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="10" t="str">
+      <c r="J21" s="5" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="K21" s="58"/>
-      <c r="L21" s="22" t="s">
+      <c r="K21" s="37"/>
+      <c r="L21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="R21" s="12"/>
+      <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="9" cm="1">
+      <c r="H22" s="7"/>
+      <c r="I22" s="4" cm="1">
         <f t="array" ref="I22">-SUMPRODUCT((D1:H1-C1:G1)*(C22:G22+D22:H22)/2)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="10" t="str">
+      <c r="J22" s="5" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="K22" s="58"/>
-      <c r="L22" s="22" t="s">
+      <c r="K22" s="37"/>
+      <c r="L22" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="R22" s="12"/>
+      <c r="R22" s="7"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="58"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="9" cm="1">
+      <c r="H23" s="7"/>
+      <c r="I23" s="4" cm="1">
         <f t="array" ref="I23">-SUMPRODUCT((D1:H1-C1:G1)*(C23:G23+D23:H23)/2)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="10" t="str">
+      <c r="J23" s="5" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="K23" s="58"/>
-      <c r="L23" s="22" t="s">
+      <c r="K23" s="37"/>
+      <c r="L23" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="R23" s="12"/>
+      <c r="R23" s="7"/>
     </row>
     <row r="24" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="9" cm="1">
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="4" cm="1">
         <f t="array" ref="I24">-SUMPRODUCT((D1:H1-C1:G1)*(C24:G24+D24:H24)/2)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="10" t="str">
+      <c r="J24" s="5" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="K24" s="59"/>
-      <c r="L24" s="25" t="s">
+      <c r="K24" s="38"/>
+      <c r="L24" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="28"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="23"/>
     </row>
     <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="3">
         <v>1</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="3">
         <v>0.75</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="3">
         <v>0.5</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="3">
         <v>0.3</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="3">
         <v>0.2</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="2">
         <v>0.1</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="K26" s="6" t="s">
+      <c r="I26" s="4"/>
+      <c r="K26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="3">
         <v>1</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="3">
         <v>0.75</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="3">
         <v>0.5</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="3">
         <v>0.3</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="3">
         <v>0.2</v>
       </c>
-      <c r="R26" s="7">
+      <c r="R26" s="2">
         <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="41">
+      <c r="B27" s="32"/>
+      <c r="C27" s="14">
         <v>92.866950218042462</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="14">
         <v>91.242690764745561</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="14">
         <v>90.137053227698445</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="14">
         <v>86.080152926613408</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="14">
         <v>77.410217255196784</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="14">
         <v>59.676194764980139</v>
       </c>
-      <c r="K27" s="52" t="s">
+      <c r="K27" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="53"/>
-      <c r="M27" s="41">
+      <c r="L27" s="32"/>
+      <c r="M27" s="14">
         <v>3.8319643020864191</v>
       </c>
-      <c r="N27" s="41">
+      <c r="N27" s="14">
         <v>4.3603246705255447</v>
       </c>
-      <c r="O27" s="41">
+      <c r="O27" s="14">
         <v>4.7987735191879262</v>
       </c>
-      <c r="P27" s="41">
+      <c r="P27" s="14">
         <v>5.1262965367330251</v>
       </c>
-      <c r="Q27" s="41">
+      <c r="Q27" s="14">
         <v>7.087258799823358</v>
       </c>
-      <c r="R27" s="41">
+      <c r="R27" s="14">
         <v>9.7457736576346736</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="36">
+      <c r="B28" s="32"/>
+      <c r="C28" s="9">
         <v>90.52770446578225</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="10">
         <v>90.342410185071145</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="10">
         <v>88.855134780158878</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="10">
         <v>86.392551450858122</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="10">
         <v>83.730938565201825</v>
       </c>
-      <c r="H28" s="39">
+      <c r="H28" s="11">
         <v>62.869764156729879</v>
       </c>
-      <c r="I28"/>
-      <c r="K28" s="52" t="s">
+      <c r="K28" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="L28" s="53"/>
-      <c r="M28" s="37">
+      <c r="L28" s="32"/>
+      <c r="M28" s="5">
         <v>4.0901656450530481</v>
       </c>
-      <c r="N28" s="37">
+      <c r="N28" s="5">
         <v>4.6901296175247245</v>
       </c>
-      <c r="O28" s="37">
+      <c r="O28" s="5">
         <v>5.7331503658977514</v>
       </c>
-      <c r="P28" s="37">
+      <c r="P28" s="5">
         <v>7.1150709678028736</v>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q28" s="5">
         <v>7.2945876922705306</v>
       </c>
-      <c r="R28" s="37">
+      <c r="R28" s="5">
         <v>11.39436528430654</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29" s="1"/>
-      <c r="I29"/>
-      <c r="K29" s="52" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="5">
+        <v>89.97817765654861</v>
+      </c>
+      <c r="D29" s="5">
+        <v>89.843877293314875</v>
+      </c>
+      <c r="E29" s="5">
+        <v>89.806880369940572</v>
+      </c>
+      <c r="F29" s="5">
+        <v>88.456307031391773</v>
+      </c>
+      <c r="G29" s="5">
+        <v>85.874347222050872</v>
+      </c>
+      <c r="H29" s="5">
+        <v>72.361626989881074</v>
+      </c>
+      <c r="K29" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="53"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29" s="1"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="5">
+        <v>3.9649646983544202</v>
+      </c>
+      <c r="N29" s="5">
+        <v>4.170593930476838</v>
+      </c>
+      <c r="O29" s="5">
+        <v>4.2923972045274397</v>
+      </c>
+      <c r="P29" s="5">
+        <v>6.0979560195091933</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>6.2812773129576227</v>
+      </c>
+      <c r="R29" s="5">
+        <v>8.3484452530393831</v>
+      </c>
     </row>
     <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="5">
         <v>91.774607805301983</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="5">
         <v>91.995252385465662</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="5">
         <v>91.677335926075884</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="5">
         <v>88.879299451861826</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="5">
         <v>83.985258595887942</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="5">
         <v>65.731292630891019</v>
       </c>
-      <c r="K30" s="35" t="s">
+      <c r="K30" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M30" s="37">
+      <c r="M30" s="5">
         <v>4.4544832367332772</v>
       </c>
-      <c r="N30" s="37">
+      <c r="N30" s="5">
         <v>4.0297709477642663</v>
       </c>
-      <c r="O30" s="37">
+      <c r="O30" s="5">
         <v>4.1710876436936273</v>
       </c>
-      <c r="P30" s="37">
+      <c r="P30" s="5">
         <v>5.4579882837225497</v>
       </c>
-      <c r="Q30" s="37">
+      <c r="Q30" s="5">
         <v>5.9477145691105049</v>
       </c>
-      <c r="R30" s="37">
+      <c r="R30" s="5">
         <v>10.175415058463971</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="5">
         <v>92.976160289720326</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="5">
         <v>91.458234182656923</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="5">
         <v>90.726064532321843</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="5">
         <v>89.020295751977415</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="5">
         <v>84.508536749906014</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="5">
         <v>68.710875881175554</v>
       </c>
-      <c r="K31" s="35" t="s">
+      <c r="K31" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="13" t="s">
+      <c r="L31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="5">
         <v>3.621821167197139</v>
       </c>
-      <c r="N31" s="37">
+      <c r="N31" s="5">
         <v>4.0726710380082025</v>
       </c>
-      <c r="O31" s="37">
+      <c r="O31" s="5">
         <v>3.4884808134500442</v>
       </c>
-      <c r="P31" s="37">
+      <c r="P31" s="5">
         <v>3.3964980255654078</v>
       </c>
-      <c r="Q31" s="37">
+      <c r="Q31" s="5">
         <v>5.6839465833440732</v>
       </c>
-      <c r="R31" s="37">
+      <c r="R31" s="5">
         <v>8.1802984888020767</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="34"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="32"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="29"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="27"/>
     </row>
     <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+      <c r="A33" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="9"/>
-      <c r="K33" s="54" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="4"/>
+      <c r="K33" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="56"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="35"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
-      <c r="K34" s="60" t="s">
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
+      <c r="K34" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L34" s="61"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="20"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="15"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="58"/>
-      <c r="B35" s="23" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="H35" s="12"/>
-      <c r="K35" s="48" t="s">
+      <c r="C35" s="19"/>
+      <c r="H35" s="7"/>
+      <c r="K35" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="L35" s="49"/>
-      <c r="M35" s="24"/>
-      <c r="R35" s="12"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="19"/>
+      <c r="R35" s="7"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="58"/>
-      <c r="B36" s="23" t="s">
+      <c r="A36" s="37"/>
+      <c r="B36" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="H36" s="12"/>
-      <c r="K36" s="48" t="s">
+      <c r="C36" s="19"/>
+      <c r="H36" s="7"/>
+      <c r="K36" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="49"/>
-      <c r="M36" s="24"/>
-      <c r="R36" s="12"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="19"/>
+      <c r="R36" s="7"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="58"/>
-      <c r="B37" s="23" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="H37" s="12"/>
-      <c r="K37" s="48" t="s">
+      <c r="C37" s="19"/>
+      <c r="H37" s="7"/>
+      <c r="K37" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="L37" s="49"/>
-      <c r="M37" s="24"/>
-      <c r="R37" s="12"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="19"/>
+      <c r="R37" s="7"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="58"/>
-      <c r="B38" s="23" t="s">
+      <c r="A38" s="37"/>
+      <c r="B38" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="H38" s="12"/>
-      <c r="K38" s="48" t="s">
+      <c r="C38" s="19"/>
+      <c r="H38" s="7"/>
+      <c r="K38" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="L38" s="49"/>
-      <c r="M38" s="24"/>
-      <c r="R38" s="12"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="19"/>
+      <c r="R38" s="7"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="58"/>
-      <c r="B39" s="23" t="s">
+      <c r="A39" s="37"/>
+      <c r="B39" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="H39" s="12"/>
-      <c r="K39" s="48" t="s">
+      <c r="C39" s="19"/>
+      <c r="H39" s="7"/>
+      <c r="K39" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L39" s="49"/>
-      <c r="M39" s="24"/>
-      <c r="R39" s="12"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="19"/>
+      <c r="R39" s="7"/>
     </row>
     <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-      <c r="K40" s="50" t="s">
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="23"/>
+      <c r="K40" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L40" s="51"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="28"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="23"/>
     </row>
     <row r="41" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="H41" s="12"/>
-      <c r="K41" s="24"/>
-      <c r="R41" s="12"/>
+      <c r="A41" s="19"/>
+      <c r="H41" s="7"/>
+      <c r="K41" s="19"/>
+      <c r="R41" s="7"/>
     </row>
     <row r="42" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="9"/>
-      <c r="K42" s="54" t="s">
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="4"/>
+      <c r="K42" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="56"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="35"/>
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="20"/>
-      <c r="K43" s="57" t="s">
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
+      <c r="K43" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L43" s="17" t="s">
+      <c r="L43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M43" s="18"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="20"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="15"/>
     </row>
     <row r="44" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="58"/>
-      <c r="B44" s="23" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="H44" s="12"/>
-      <c r="K44" s="58"/>
-      <c r="L44" s="23" t="s">
+      <c r="C44" s="19"/>
+      <c r="H44" s="7"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="24"/>
-      <c r="R44" s="12"/>
+      <c r="M44" s="19"/>
+      <c r="R44" s="7"/>
     </row>
     <row r="45" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="58"/>
-      <c r="B45" s="23" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="H45" s="12"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="23" t="s">
+      <c r="C45" s="19"/>
+      <c r="H45" s="7"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M45" s="24"/>
-      <c r="R45" s="12"/>
+      <c r="M45" s="19"/>
+      <c r="R45" s="7"/>
     </row>
     <row r="46" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="58"/>
-      <c r="B46" s="23" t="s">
+      <c r="A46" s="37"/>
+      <c r="B46" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="H46" s="12"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="23" t="s">
+      <c r="C46" s="19"/>
+      <c r="H46" s="7"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M46" s="24"/>
-      <c r="R46" s="12"/>
+      <c r="M46" s="19"/>
+      <c r="R46" s="7"/>
     </row>
     <row r="47" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="58"/>
-      <c r="B47" s="23" t="s">
+      <c r="A47" s="37"/>
+      <c r="B47" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="H47" s="12"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="23" t="s">
+      <c r="C47" s="19"/>
+      <c r="H47" s="7"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M47" s="24"/>
-      <c r="R47" s="12"/>
+      <c r="M47" s="19"/>
+      <c r="R47" s="7"/>
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
-      <c r="B48" s="23" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="H48" s="12"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="23" t="s">
+      <c r="C48" s="19"/>
+      <c r="H48" s="7"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="M48" s="24"/>
-      <c r="R48" s="12"/>
+      <c r="M48" s="19"/>
+      <c r="R48" s="7"/>
     </row>
     <row r="49" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="11" t="s">
+      <c r="C49" s="21"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="23"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M49" s="26"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="28"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="K42:R42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="K43:K49"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="K33:R33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="A4:B4"/>
@@ -2159,44 +2207,20 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="K42:R42"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="K43:K49"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="K33:R33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="K8:R8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A29">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2300,6 +2324,76 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:H2">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2311,76 +2405,6 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2426,47 +2450,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:H4">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2556,6 +2580,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I3 I2:I24">
+    <cfRule type="colorScale" priority="391">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="387">
       <colorScale>
         <cfvo type="min"/>
@@ -2587,16 +2621,6 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="390">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="391">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2656,17 +2680,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I15 I8:I10 I5:I6 C5:H7 I17:I20 I22:I24">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2690,6 +2714,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -2700,29 +2734,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2782,6 +2806,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:R8">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -2792,18 +2826,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:R17">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -2814,18 +2848,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:R33">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2836,29 +2870,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:R42">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2878,1601 +2902,1631 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15" style="10" customWidth="1"/>
-    <col min="3" max="12" width="9" style="10"/>
-    <col min="13" max="14" width="15" style="10" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="10"/>
+    <col min="1" max="2" width="15" style="5" customWidth="1"/>
+    <col min="3" max="12" width="9" style="5"/>
+    <col min="13" max="14" width="15" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="3">
         <v>0.75</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="3">
         <v>0.5</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="3">
         <v>0.3</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="3">
         <v>0.2</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="3">
         <v>0.1</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="2">
         <v>0.05</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="1">
         <v>1</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1" s="3">
         <v>0.75</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="Q1" s="3">
         <v>0.5</v>
       </c>
-      <c r="R1" s="8">
+      <c r="R1" s="3">
         <v>0.3</v>
       </c>
-      <c r="S1" s="8">
+      <c r="S1" s="3">
         <v>0.2</v>
       </c>
-      <c r="T1" s="8">
+      <c r="T1" s="3">
         <v>0.1</v>
       </c>
-      <c r="U1" s="7">
+      <c r="U1" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="40">
+      <c r="B2" s="32"/>
+      <c r="C2" s="13">
         <v>93.273358766079312</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="14">
         <v>91.615587793435367</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="14">
         <v>90.62053304959386</v>
       </c>
-      <c r="F2" s="41">
+      <c r="F2" s="14">
         <v>86.59751381932368</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="14">
         <v>78.22435026831262</v>
       </c>
-      <c r="H2" s="41">
+      <c r="H2" s="14">
         <v>60.854992978601317</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="15">
         <v>48.743933771053378</v>
       </c>
-      <c r="J2" s="9" cm="1">
+      <c r="J2" s="4" cm="1">
         <f t="array" ref="J2">-SUMPRODUCT((D1:I1-C1:H1)*(C2:H2+D2:I2)/2)</f>
         <v>81.54747164767862</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="4">
         <f>C2*(1-1)^2+D2*(1-0.75)^2+E2*(1-0.5)^2+F2*(1-0.3)^2+G2*(1-0.2)^2+H2*(1-0.1)^2+I2*(1-0.05)^2</f>
         <v>214.16141798371962</v>
       </c>
-      <c r="L2" s="10" t="str">
+      <c r="L2" s="5" t="str">
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
         <v xml:space="preserve">    93.2733587660793, 91.6155877934354, 90.6205330495939, 86.5975138193237, 78.2243502683126, 60.8549929786013, 48.7439337710534,</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="40">
+      <c r="N2" s="44"/>
+      <c r="O2" s="13">
         <v>3.4672469457762647</v>
       </c>
-      <c r="P2" s="41">
+      <c r="P2" s="14">
         <v>4.1066373858138912</v>
       </c>
-      <c r="Q2" s="41">
+      <c r="Q2" s="14">
         <v>4.4433442831389707</v>
       </c>
-      <c r="R2" s="41">
+      <c r="R2" s="14">
         <v>4.8572661690244194</v>
       </c>
-      <c r="S2" s="41">
+      <c r="S2" s="14">
         <v>6.7334065011993722</v>
       </c>
-      <c r="T2" s="41">
+      <c r="T2" s="14">
         <v>9.3055912140758643</v>
       </c>
-      <c r="U2" s="42">
+      <c r="U2" s="15">
         <v>9.1853207799272329</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="37">
+      <c r="B3" s="32"/>
+      <c r="C3" s="5">
         <v>91.183040799084182</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="5">
         <v>90.993376528632041</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="5">
         <v>89.575994025323183</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="5">
         <v>87.075747483398061</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="5">
         <v>84.502634105831376</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="5">
         <v>64.535713976764512</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="5">
         <v>52.244131292946591</v>
       </c>
-      <c r="J3" s="9" cm="1">
+      <c r="J3" s="4" cm="1">
         <f t="array" ref="J3">-SUMPRODUCT((D1:I1-C1:H1)*(C3:H3+D3:I3)/2)</f>
         <v>81.958730251415105</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="4">
         <f t="shared" ref="K3:K4" si="0">C3*(1-1)^2+D3*(1-0.75)^2+E3*(1-0.5)^2+F3*(1-0.3)^2+G3*(1-0.2)^2+H3*(1-0.1)^2+I3*(1-0.05)^2</f>
         <v>224.254143447031</v>
       </c>
-      <c r="M3" s="52" t="s">
+      <c r="M3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="37">
+      <c r="N3" s="32"/>
+      <c r="O3" s="5">
         <v>3.6304356896667822</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="5">
         <v>4.1563832177869031</v>
       </c>
-      <c r="Q3" s="37">
+      <c r="Q3" s="5">
         <v>5.199169452154365</v>
       </c>
-      <c r="R3" s="37">
+      <c r="R3" s="5">
         <v>6.7300098038020417</v>
       </c>
-      <c r="S3" s="37">
+      <c r="S3" s="5">
         <v>6.9700930926995044</v>
       </c>
-      <c r="T3" s="37">
+      <c r="T3" s="5">
         <v>10.29776577193992</v>
       </c>
-      <c r="U3" s="37">
+      <c r="U3" s="5">
         <v>8.932833291081316</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="9" cm="1">
+      <c r="B4" s="32"/>
+      <c r="C4" s="5">
+        <v>90.664120508539568</v>
+      </c>
+      <c r="D4" s="5">
+        <v>90.478199061698916</v>
+      </c>
+      <c r="E4" s="5">
+        <v>90.524586429525058</v>
+      </c>
+      <c r="F4" s="5">
+        <v>89.185007367422472</v>
+      </c>
+      <c r="G4" s="5">
+        <v>86.609875517954293</v>
+      </c>
+      <c r="H4" s="5">
+        <v>73.33662344253267</v>
+      </c>
+      <c r="I4" s="5">
+        <v>59.553176642243173</v>
+      </c>
+      <c r="J4" s="4" cm="1">
         <f t="array" ref="J4">-SUMPRODUCT((D1:I1-C1:H1)*(C4:H4+D4:I4)/2)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
+        <v>83.348411606790137</v>
+      </c>
+      <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="52" t="s">
+        <v>240.56641489834115</v>
+      </c>
+      <c r="M4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="53"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="5">
+        <v>3.5401754285279829</v>
+      </c>
+      <c r="P4" s="5">
+        <v>3.9174920258854611</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>3.9698130808052361</v>
+      </c>
+      <c r="R4" s="5">
+        <v>5.5336035606832699</v>
+      </c>
+      <c r="S4" s="5">
+        <v>5.8457163898602484</v>
+      </c>
+      <c r="T4" s="5">
+        <v>7.6914890661564108</v>
+      </c>
+      <c r="U4" s="5">
+        <v>7.5545459945698301</v>
+      </c>
     </row>
     <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="9" cm="1">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="4" cm="1">
         <f t="array" ref="J5">-SUMPRODUCT((D1:I1-C1:H1)*(C5:H5+D5:I5)/2)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="4">
         <f t="shared" ref="K5:K8" si="1">C5*(1-1)^2+D5*(1-0.75)^2+E5*(1-0.5)^2+F5*(1-0.3)^2+G5*(1-0.2)^2+H5*(1-0.1)^2+I5*(1-0.05)^2</f>
         <v>0</v>
       </c>
-      <c r="L5" s="10" t="str">
+      <c r="L5" s="5" t="str">
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C5:I5)&amp;","</f>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="20"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="5">
         <v>92.198796414040501</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="5">
         <v>92.414992055871295</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="5">
         <v>92.060072607317821</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="5">
         <v>89.38247447353929</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="5">
         <v>84.585936441203344</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="5">
         <v>66.764098305348668</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="5">
         <v>55.966657727719692</v>
       </c>
-      <c r="J6" s="9" cm="1">
+      <c r="J6" s="4" cm="1">
         <f t="array" ref="J6">-SUMPRODUCT((D1:I1-C1:H1)*(C6:H6+D6:I6)/2)</f>
         <v>83.614552533614784</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="4">
         <f t="shared" si="1"/>
         <v>231.31219519632526</v>
       </c>
-      <c r="M6" s="64"/>
-      <c r="N6" s="13" t="s">
+      <c r="M6" s="48"/>
+      <c r="N6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="5">
         <v>4.0920825520660458</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="5">
         <v>3.6811518659313718</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="5">
         <v>3.85785796812947</v>
       </c>
-      <c r="R6" s="37">
+      <c r="R6" s="5">
         <v>5.1846446465102227</v>
       </c>
-      <c r="S6" s="37">
+      <c r="S6" s="5">
         <v>5.651552347343773</v>
       </c>
-      <c r="T6" s="37">
+      <c r="T6" s="5">
         <v>9.7038681323141347</v>
       </c>
-      <c r="U6" s="37">
+      <c r="U6" s="5">
         <v>10.2408080553086</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="9" cm="1">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="4" cm="1">
         <f t="array" ref="J7">-SUMPRODUCT((D1:I1-C1:H1)*(C7:H7+D7:I7)/2)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M7" s="57" t="s">
+      <c r="M7" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="N7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="20"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="15"/>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="5">
         <v>93.422812192723697</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="5">
         <v>91.884967286337556</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="5">
         <v>91.219278136777405</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="5">
         <v>89.511307767944942</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="5">
         <v>85.221786808997777</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="5">
         <v>69.864136656314784</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="5">
         <v>56.569038947857088</v>
       </c>
-      <c r="J8" s="9" cm="1">
+      <c r="J8" s="4" cm="1">
         <f t="array" ref="J8">-SUMPRODUCT((D1:I1-C1:H1)*(C8:H8+D8:I8)/2)</f>
         <v>83.776341995461323</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="4">
         <f t="shared" si="1"/>
         <v>234.59362269569806</v>
       </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="13" t="s">
+      <c r="M8" s="38"/>
+      <c r="N8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="5">
         <v>3.2252513660301281</v>
       </c>
-      <c r="P8" s="37">
+      <c r="P8" s="5">
         <v>3.7972946157850411</v>
       </c>
-      <c r="Q8" s="37">
+      <c r="Q8" s="5">
         <v>3.2633028119927521</v>
       </c>
-      <c r="R8" s="37">
+      <c r="R8" s="5">
         <v>3.255882546679346</v>
       </c>
-      <c r="S8" s="37">
+      <c r="S8" s="5">
         <v>5.2317157915617392</v>
       </c>
-      <c r="T8" s="37">
+      <c r="T8" s="5">
         <v>7.5625760189743341</v>
       </c>
-      <c r="U8" s="37">
+      <c r="U8" s="5">
         <v>7.8089937506508873</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="32"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="27"/>
     </row>
     <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="M10" s="60" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="M10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="61"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="40"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9">
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
         <f t="shared" ref="K11:K26" si="2">C11*(1-1)^2+D11*(1-0.75)^2+E11*(1-0.5)^2+F11*(1-0.3)^2+G11*(1-0.2)^2+H11*(1-0.1)^2+I11*(1-0.05)^2</f>
         <v>0</v>
       </c>
-      <c r="L11" s="10" t="str">
+      <c r="L11" s="5" t="str">
         <f t="shared" ref="L11:L17" si="3">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C11:I11)&amp;","</f>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="M11" s="60" t="s">
+      <c r="M11" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="61"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="20"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="15"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9">
+      <c r="C12" s="19"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="10" t="str">
+      <c r="L12" s="5" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="M12" s="48" t="s">
+      <c r="M12" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="49"/>
-      <c r="O12" s="24"/>
-      <c r="U12" s="12"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="19"/>
+      <c r="U12" s="7"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9">
+      <c r="C13" s="19"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="10" t="str">
+      <c r="L13" s="5" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="M13" s="48" t="s">
+      <c r="M13" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="49"/>
-      <c r="O13" s="24"/>
-      <c r="U13" s="12"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="19"/>
+      <c r="U13" s="7"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9">
+      <c r="C14" s="19"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L14" s="10" t="str">
+      <c r="L14" s="5" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="M14" s="48" t="s">
+      <c r="M14" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="49"/>
-      <c r="O14" s="24"/>
-      <c r="U14" s="12"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="19"/>
+      <c r="U14" s="7"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9">
+      <c r="C15" s="19"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="10" t="str">
+      <c r="L15" s="5" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="M15" s="48" t="s">
+      <c r="M15" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="N15" s="49"/>
-      <c r="O15" s="24"/>
-      <c r="U15" s="12"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="19"/>
+      <c r="U15" s="7"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="9" cm="1">
+      <c r="C16" s="19"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="4" cm="1">
         <f t="array" ref="J16">-SUMPRODUCT((D1:I1-C1:H1)*(C16:H16+D16:I16)/2)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L16" s="10" t="str">
+      <c r="L16" s="5" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="M16" s="48" t="s">
+      <c r="M16" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="49"/>
-      <c r="O16" s="24"/>
-      <c r="U16" s="12"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="19"/>
+      <c r="U16" s="7"/>
     </row>
     <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9">
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="10" t="str">
+      <c r="L17" s="5" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="M17" s="50" t="s">
+      <c r="M17" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="51"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="28"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="23"/>
     </row>
     <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="28"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="23"/>
     </row>
     <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="M19" s="60" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="M19" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="61"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="40"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L20" s="10" t="str">
+      <c r="L20" s="5" t="str">
         <f t="shared" ref="L20:L26" si="4">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C20:I20)&amp;","</f>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="M20" s="57" t="s">
+      <c r="M20" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="20"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="15"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9">
+      <c r="I21" s="7"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L21" s="10" t="str">
+      <c r="L21" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="M21" s="58"/>
-      <c r="N21" s="22" t="s">
+      <c r="M21" s="37"/>
+      <c r="N21" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="12"/>
+      <c r="U21" s="7"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9">
+      <c r="I22" s="7"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L22" s="10" t="str">
+      <c r="L22" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="M22" s="58"/>
-      <c r="N22" s="22" t="s">
+      <c r="M22" s="37"/>
+      <c r="N22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="U22" s="12"/>
+      <c r="U22" s="7"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="58"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9">
+      <c r="I23" s="7"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L23" s="10" t="str">
+      <c r="L23" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="M23" s="58"/>
-      <c r="N23" s="22" t="s">
+      <c r="M23" s="37"/>
+      <c r="N23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="U23" s="12"/>
+      <c r="U23" s="7"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="58"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9">
+      <c r="I24" s="7"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L24" s="10" t="str">
+      <c r="L24" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="M24" s="58"/>
-      <c r="N24" s="22" t="s">
+      <c r="M24" s="37"/>
+      <c r="N24" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="U24" s="12"/>
+      <c r="U24" s="7"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="58"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="9" cm="1">
+      <c r="I25" s="7"/>
+      <c r="J25" s="4" cm="1">
         <f t="array" ref="J25">-SUMPRODUCT((D1:I1-C1:H1)*(C25:H25+D25:I25)/2)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L25" s="10" t="str">
+      <c r="L25" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="M25" s="58"/>
-      <c r="N25" s="22" t="s">
+      <c r="M25" s="37"/>
+      <c r="N25" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="12"/>
+      <c r="U25" s="7"/>
     </row>
     <row r="26" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="25" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L26" s="10" t="str">
+      <c r="L26" s="5" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">    ,</v>
       </c>
-      <c r="M26" s="59"/>
-      <c r="N26" s="25" t="s">
+      <c r="M26" s="38"/>
+      <c r="N26" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="28"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="23"/>
     </row>
     <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K27" s="9"/>
+      <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="3">
         <v>1</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="3">
         <v>0.75</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="3">
         <v>0.5</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="3">
         <v>0.3</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="3">
         <v>0.2</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="3">
         <v>0.1</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="2">
         <v>0.05</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="M28" s="6" t="s">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="M28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="3">
         <v>1</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P28" s="3">
         <v>0.75</v>
       </c>
-      <c r="Q28" s="8">
+      <c r="Q28" s="3">
         <v>0.5</v>
       </c>
-      <c r="R28" s="8">
+      <c r="R28" s="3">
         <v>0.3</v>
       </c>
-      <c r="S28" s="8">
+      <c r="S28" s="3">
         <v>0.2</v>
       </c>
-      <c r="T28" s="8">
+      <c r="T28" s="3">
         <v>0.1</v>
       </c>
-      <c r="U28" s="7">
+      <c r="U28" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="41">
+      <c r="B29" s="44"/>
+      <c r="C29" s="14">
         <v>92.866950218042462</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="14">
         <v>91.242690764745561</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="14">
         <v>90.137053227698445</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="14">
         <v>86.080152926613408</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="14">
         <v>77.410217255196784</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="14">
         <v>59.676194764980139</v>
       </c>
-      <c r="I29" s="42">
+      <c r="I29" s="15">
         <v>46.395490419404197</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="M29" s="50" t="s">
+      <c r="K29" s="4"/>
+      <c r="M29" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N29" s="51"/>
-      <c r="O29" s="41">
+      <c r="N29" s="44"/>
+      <c r="O29" s="14">
         <v>3.8319643020864191</v>
       </c>
-      <c r="P29" s="41">
+      <c r="P29" s="14">
         <v>4.3603246705255447</v>
       </c>
-      <c r="Q29" s="41">
+      <c r="Q29" s="14">
         <v>4.7987735191879262</v>
       </c>
-      <c r="R29" s="41">
+      <c r="R29" s="14">
         <v>5.1262965367330251</v>
       </c>
-      <c r="S29" s="41">
+      <c r="S29" s="14">
         <v>7.087258799823358</v>
       </c>
-      <c r="T29" s="41">
+      <c r="T29" s="14">
         <v>9.7457736576346736</v>
       </c>
-      <c r="U29" s="42">
+      <c r="U29" s="15">
         <v>10.021578856839133</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="37">
+      <c r="B30" s="32"/>
+      <c r="C30" s="5">
         <v>90.52770446578225</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="5">
         <v>90.342410185071145</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="5">
         <v>88.855134780158878</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="5">
         <v>86.392551450858122</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="5">
         <v>83.730938565201825</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="5">
         <v>62.869764156729879</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="5">
         <v>50.14806597685817</v>
       </c>
-      <c r="K30" s="9"/>
-      <c r="M30" s="52" t="s">
+      <c r="K30" s="4"/>
+      <c r="M30" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="N30" s="53"/>
-      <c r="O30" s="37">
+      <c r="N30" s="32"/>
+      <c r="O30" s="5">
         <v>4.0901656450530481</v>
       </c>
-      <c r="P30" s="37">
+      <c r="P30" s="5">
         <v>4.6901296175247245</v>
       </c>
-      <c r="Q30" s="37">
+      <c r="Q30" s="5">
         <v>5.7331503658977514</v>
       </c>
-      <c r="R30" s="37">
+      <c r="R30" s="5">
         <v>7.1150709678028736</v>
       </c>
-      <c r="S30" s="37">
+      <c r="S30" s="5">
         <v>7.2945876922705306</v>
       </c>
-      <c r="T30" s="37">
+      <c r="T30" s="5">
         <v>11.39436528430654</v>
       </c>
-      <c r="U30" s="37">
+      <c r="U30" s="5">
         <v>9.6259268952376154</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="3"/>
-      <c r="K31" s="9"/>
-      <c r="M31" s="52" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="5">
+        <v>89.97817765654861</v>
+      </c>
+      <c r="D31" s="5">
+        <v>89.843877293314875</v>
+      </c>
+      <c r="E31" s="5">
+        <v>89.806880369940572</v>
+      </c>
+      <c r="F31" s="5">
+        <v>88.456307031391773</v>
+      </c>
+      <c r="G31" s="5">
+        <v>85.874347222050872</v>
+      </c>
+      <c r="H31" s="5">
+        <v>72.361626989881074</v>
+      </c>
+      <c r="I31" s="5">
+        <v>57.862850795163133</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="M31" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N31" s="53"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="5">
+        <v>3.9649646983544202</v>
+      </c>
+      <c r="P31" s="5">
+        <v>4.170593930476838</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>4.2923972045274397</v>
+      </c>
+      <c r="R31" s="5">
+        <v>6.0979560195091933</v>
+      </c>
+      <c r="S31" s="5">
+        <v>6.2812773129576227</v>
+      </c>
+      <c r="T31" s="5">
+        <v>8.3484452530393831</v>
+      </c>
+      <c r="U31" s="5">
+        <v>8.47470049713211</v>
+      </c>
     </row>
     <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="20"/>
-      <c r="K32" s="9"/>
-      <c r="M32" s="63" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+      <c r="K32" s="4"/>
+      <c r="M32" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="N32" s="17" t="s">
+      <c r="N32" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O32" s="18"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="20"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="15"/>
     </row>
     <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="48"/>
+      <c r="B33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="5">
         <v>91.774607805301983</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="5">
         <v>91.995252385465662</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="5">
         <v>91.677335926075884</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="5">
         <v>88.879299451861826</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="5">
         <v>83.985258595887942</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="5">
         <v>65.731292630891019</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33" s="5">
         <v>52.732989292162138</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="13" t="s">
+      <c r="K33" s="4"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O33" s="37">
+      <c r="O33" s="5">
         <v>4.4544832367332772</v>
       </c>
-      <c r="P33" s="37">
+      <c r="P33" s="5">
         <v>4.0297709477642663</v>
       </c>
-      <c r="Q33" s="37">
+      <c r="Q33" s="5">
         <v>4.1710876436936273</v>
       </c>
-      <c r="R33" s="37">
+      <c r="R33" s="5">
         <v>5.4579882837225497</v>
       </c>
-      <c r="S33" s="37">
+      <c r="S33" s="5">
         <v>5.9477145691105049</v>
       </c>
-      <c r="T33" s="37">
+      <c r="T33" s="5">
         <v>10.175415058463971</v>
       </c>
-      <c r="U33" s="37">
+      <c r="U33" s="5">
         <v>11.627506884507751</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="20"/>
-      <c r="K34" s="9"/>
-      <c r="M34" s="57" t="s">
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
+      <c r="K34" s="4"/>
+      <c r="M34" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N34" s="33" t="s">
+      <c r="N34" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="O34" s="18"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="20"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="15"/>
     </row>
     <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="5">
         <v>92.976160289720326</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="5">
         <v>91.458234182656923</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="5">
         <v>90.726064532321843</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="5">
         <v>89.020295751977415</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="5">
         <v>84.508536749906014</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="5">
         <v>68.710875881175554</v>
       </c>
-      <c r="I35" s="37">
+      <c r="I35" s="5">
         <v>52.285439818545356</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="13" t="s">
+      <c r="K35" s="4"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O35" s="37">
+      <c r="O35" s="5">
         <v>3.621821167197139</v>
       </c>
-      <c r="P35" s="37">
+      <c r="P35" s="5">
         <v>4.0726710380082025</v>
       </c>
-      <c r="Q35" s="37">
+      <c r="Q35" s="5">
         <v>3.4884808134500442</v>
       </c>
-      <c r="R35" s="37">
+      <c r="R35" s="5">
         <v>3.3964980255654078</v>
       </c>
-      <c r="S35" s="37">
+      <c r="S35" s="5">
         <v>5.6839465833440732</v>
       </c>
-      <c r="T35" s="37">
+      <c r="T35" s="5">
         <v>8.1802984888020767</v>
       </c>
-      <c r="U35" s="37">
+      <c r="U35" s="5">
         <v>9.6106499747112792</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="9"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="32"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="4"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="27"/>
     </row>
     <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="M37" s="60" t="s">
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="M37" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="62"/>
-      <c r="R37" s="62"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="61"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="40"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="20"/>
-      <c r="K38" s="9"/>
-      <c r="M38" s="60" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="15"/>
+      <c r="K38" s="4"/>
+      <c r="M38" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="N38" s="61"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="20"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="15"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="58"/>
-      <c r="B39" s="23" t="s">
+      <c r="A39" s="37"/>
+      <c r="B39" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="I39" s="12"/>
-      <c r="K39" s="9"/>
-      <c r="M39" s="48" t="s">
+      <c r="C39" s="19"/>
+      <c r="I39" s="7"/>
+      <c r="K39" s="4"/>
+      <c r="M39" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="N39" s="49"/>
-      <c r="O39" s="24"/>
-      <c r="U39" s="12"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="19"/>
+      <c r="U39" s="7"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" s="58"/>
-      <c r="B40" s="23" t="s">
+      <c r="A40" s="37"/>
+      <c r="B40" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="I40" s="12"/>
-      <c r="K40" s="9"/>
-      <c r="M40" s="48" t="s">
+      <c r="C40" s="19"/>
+      <c r="I40" s="7"/>
+      <c r="K40" s="4"/>
+      <c r="M40" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="N40" s="49"/>
-      <c r="O40" s="24"/>
-      <c r="U40" s="12"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="19"/>
+      <c r="U40" s="7"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" s="58"/>
-      <c r="B41" s="23" t="s">
+      <c r="A41" s="37"/>
+      <c r="B41" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="I41" s="12"/>
-      <c r="K41" s="9"/>
-      <c r="M41" s="48" t="s">
+      <c r="C41" s="19"/>
+      <c r="I41" s="7"/>
+      <c r="K41" s="4"/>
+      <c r="M41" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="N41" s="49"/>
-      <c r="O41" s="24"/>
-      <c r="U41" s="12"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="19"/>
+      <c r="U41" s="7"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="58"/>
-      <c r="B42" s="23" t="s">
+      <c r="A42" s="37"/>
+      <c r="B42" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="I42" s="12"/>
-      <c r="K42" s="9"/>
-      <c r="M42" s="48" t="s">
+      <c r="C42" s="19"/>
+      <c r="I42" s="7"/>
+      <c r="K42" s="4"/>
+      <c r="M42" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="N42" s="49"/>
-      <c r="O42" s="24"/>
-      <c r="U42" s="12"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="19"/>
+      <c r="U42" s="7"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="58"/>
-      <c r="B43" s="23" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="I43" s="12"/>
-      <c r="K43" s="9"/>
-      <c r="M43" s="48" t="s">
+      <c r="C43" s="19"/>
+      <c r="I43" s="7"/>
+      <c r="K43" s="4"/>
+      <c r="M43" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="N43" s="49"/>
-      <c r="O43" s="24"/>
-      <c r="U43" s="12"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="19"/>
+      <c r="U43" s="7"/>
     </row>
     <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="38"/>
+      <c r="B44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="28"/>
-      <c r="K44" s="9"/>
-      <c r="M44" s="50" t="s">
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23"/>
+      <c r="K44" s="4"/>
+      <c r="M44" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="N44" s="51"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="28"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="23"/>
     </row>
     <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="M46" s="52" t="s">
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="M46" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="N46" s="65"/>
-      <c r="O46" s="65"/>
-      <c r="P46" s="65"/>
-      <c r="Q46" s="65"/>
-      <c r="R46" s="65"/>
-      <c r="S46" s="65"/>
-      <c r="T46" s="65"/>
-      <c r="U46" s="53"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="32"/>
     </row>
     <row r="47" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="20"/>
-      <c r="K47" s="9"/>
-      <c r="M47" s="57" t="s">
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="15"/>
+      <c r="K47" s="4"/>
+      <c r="M47" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="N47" s="17" t="s">
+      <c r="N47" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O47" s="18"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="20"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="15"/>
     </row>
     <row r="48" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
-      <c r="B48" s="23" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="I48" s="12"/>
-      <c r="K48" s="9"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="23" t="s">
+      <c r="C48" s="19"/>
+      <c r="I48" s="7"/>
+      <c r="K48" s="4"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="O48" s="24"/>
-      <c r="U48" s="12"/>
+      <c r="O48" s="19"/>
+      <c r="U48" s="7"/>
     </row>
     <row r="49" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="58"/>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="I49" s="12"/>
-      <c r="K49" s="9"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="23" t="s">
+      <c r="C49" s="19"/>
+      <c r="I49" s="7"/>
+      <c r="K49" s="4"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="O49" s="24"/>
-      <c r="U49" s="12"/>
+      <c r="O49" s="19"/>
+      <c r="U49" s="7"/>
     </row>
     <row r="50" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
-      <c r="B50" s="23" t="s">
+      <c r="A50" s="37"/>
+      <c r="B50" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="I50" s="12"/>
-      <c r="K50" s="9"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="23" t="s">
+      <c r="C50" s="19"/>
+      <c r="I50" s="7"/>
+      <c r="K50" s="4"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O50" s="24"/>
-      <c r="U50" s="12"/>
+      <c r="O50" s="19"/>
+      <c r="U50" s="7"/>
     </row>
     <row r="51" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="58"/>
-      <c r="B51" s="23" t="s">
+      <c r="A51" s="37"/>
+      <c r="B51" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="I51" s="12"/>
-      <c r="K51" s="9"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="23" t="s">
+      <c r="C51" s="19"/>
+      <c r="I51" s="7"/>
+      <c r="K51" s="4"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="O51" s="24"/>
-      <c r="U51" s="12"/>
+      <c r="O51" s="19"/>
+      <c r="U51" s="7"/>
     </row>
     <row r="52" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
-      <c r="B52" s="23" t="s">
+      <c r="A52" s="37"/>
+      <c r="B52" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="I52" s="12"/>
-      <c r="K52" s="9"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="23" t="s">
+      <c r="C52" s="19"/>
+      <c r="I52" s="7"/>
+      <c r="K52" s="4"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="O52" s="24"/>
-      <c r="U52" s="12"/>
+      <c r="O52" s="19"/>
+      <c r="U52" s="7"/>
     </row>
     <row r="53" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
-      <c r="B53" s="11" t="s">
+      <c r="A53" s="38"/>
+      <c r="B53" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="28"/>
-      <c r="K53" s="9"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="11" t="s">
+      <c r="C53" s="21"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="23"/>
+      <c r="K53" s="4"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O53" s="26"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="28"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M19:U19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="M46:U46"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="M47:M53"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="M37:U37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M20:M26"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="A10:I10"/>
@@ -4489,9 +4543,35 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M20:M26"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="M47:M53"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="M37:U37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="M46:U46"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M19:U19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="A19:I19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A30">
@@ -4589,6 +4669,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H4">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -4599,26 +4719,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -4629,26 +4729,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -4661,6 +4741,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:I2 J5:J26 I3:I4">
+    <cfRule type="colorScale" priority="242">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="240">
       <colorScale>
         <cfvo type="min"/>
@@ -4672,16 +4762,6 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="241">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="242">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4749,17 +4829,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:I26">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4783,6 +4863,76 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J4">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -4794,76 +4944,6 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4921,17 +5001,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/results_cnn_subnetwork_evaluation/PLV_subnetwork_separate_node_index/summary_plv.xlsx
+++ b/results_cnn_subnetwork_evaluation/PLV_subnetwork_separate_node_index/summary_plv.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_residual\results_cnn_subnetwork_evaluation\PLV_subnetwork_separate_node_index\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F34F63-3A9F-4DE4-9408-2A8A32CA6AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6062F1DE-EF18-473F-BDD1-8FAC8D47DA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="633" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="plv_Residual&amp;Competitors" sheetId="11" r:id="rId1"/>
-    <sheet name="plv_Residual_fulldata" sheetId="9" r:id="rId2"/>
+    <sheet name="plv_Residual&amp;Competitors_partio" sheetId="12" r:id="rId1"/>
+    <sheet name="plv_Residual&amp;Competitors" sheetId="11" r:id="rId2"/>
+    <sheet name="plv_Residual_fulldata" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="30">
   <si>
     <t>Residual Model</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -416,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,13 +565,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,21 +582,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -618,7 +601,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -629,15 +630,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -654,6 +646,186 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -934,10 +1106,2645 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3554FB-5B0D-4464-AC52-A50C1124256F}">
+  <dimension ref="A1:R35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.75" style="124" customWidth="1"/>
+    <col min="2" max="2" width="15" style="124" customWidth="1"/>
+    <col min="3" max="10" width="9" style="124"/>
+    <col min="11" max="11" width="18.75" style="124" customWidth="1"/>
+    <col min="12" max="12" width="15" style="124" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="124"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="159" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="158">
+        <v>1</v>
+      </c>
+      <c r="D1" s="160">
+        <v>0.75</v>
+      </c>
+      <c r="E1" s="160">
+        <v>0.5</v>
+      </c>
+      <c r="F1" s="160">
+        <v>0.3</v>
+      </c>
+      <c r="G1" s="160">
+        <v>0.2</v>
+      </c>
+      <c r="H1" s="159">
+        <v>0.1</v>
+      </c>
+      <c r="I1" s="174" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="175"/>
+      <c r="K1" s="162" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="159" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="158">
+        <v>1</v>
+      </c>
+      <c r="N1" s="160">
+        <v>0.75</v>
+      </c>
+      <c r="O1" s="160">
+        <v>0.5</v>
+      </c>
+      <c r="P1" s="160">
+        <v>0.3</v>
+      </c>
+      <c r="Q1" s="160">
+        <v>0.2</v>
+      </c>
+      <c r="R1" s="159">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="147">
+        <v>93.273358766079312</v>
+      </c>
+      <c r="D2" s="148">
+        <v>91.615587793435367</v>
+      </c>
+      <c r="E2" s="148">
+        <v>90.62053304959386</v>
+      </c>
+      <c r="F2" s="148">
+        <v>86.59751381932368</v>
+      </c>
+      <c r="G2" s="148">
+        <v>78.22435026831262</v>
+      </c>
+      <c r="H2" s="149">
+        <v>60.854992978601317</v>
+      </c>
+      <c r="I2" s="145" cm="1">
+        <f t="array" ref="I2">-SUMPRODUCT((D1:H1-C1:G1)*(C2:G2+D2:H2)/2)</f>
+        <v>78.807498478937248</v>
+      </c>
+      <c r="J2" s="146" t="str">
+        <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:H2)&amp;","</f>
+        <v xml:space="preserve">    93.2733587660793, 91.6155877934354, 90.6205330495939, 86.5975138193237, 78.2243502683126, 60.8549929786013,</v>
+      </c>
+      <c r="K2" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="68"/>
+      <c r="M2" s="150">
+        <v>3.4672469457762647</v>
+      </c>
+      <c r="N2" s="151">
+        <v>4.1066373858138912</v>
+      </c>
+      <c r="O2" s="151">
+        <v>4.4433442831389707</v>
+      </c>
+      <c r="P2" s="151">
+        <v>4.8572661690244194</v>
+      </c>
+      <c r="Q2" s="151">
+        <v>6.7334065011993722</v>
+      </c>
+      <c r="R2" s="152">
+        <v>9.3055912140758643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="147">
+        <v>91.183040799084182</v>
+      </c>
+      <c r="D3" s="148">
+        <v>90.993376528632041</v>
+      </c>
+      <c r="E3" s="148">
+        <v>89.575994025323183</v>
+      </c>
+      <c r="F3" s="148">
+        <v>87.075747483398061</v>
+      </c>
+      <c r="G3" s="148">
+        <v>84.502634105831376</v>
+      </c>
+      <c r="H3" s="149">
+        <v>64.535713976764512</v>
+      </c>
+      <c r="I3" s="145" cm="1">
+        <f t="array" ref="I3">-SUMPRODUCT((D1:H1-C1:G1)*(C3:G3+D3:H3)/2)</f>
+        <v>79.039234119672329</v>
+      </c>
+      <c r="J3" s="146" t="str">
+        <f t="shared" ref="J3:J6" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:H3)&amp;","</f>
+        <v xml:space="preserve">    91.1830407990842, 90.993376528632, 89.5759940253232, 87.0757474833981, 84.5026341058314, 64.5357139767645,</v>
+      </c>
+      <c r="K3" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="69"/>
+      <c r="M3" s="150">
+        <v>3.6304356896667822</v>
+      </c>
+      <c r="N3" s="151">
+        <v>4.1563832177869031</v>
+      </c>
+      <c r="O3" s="151">
+        <v>5.199169452154365</v>
+      </c>
+      <c r="P3" s="151">
+        <v>6.7300098038020417</v>
+      </c>
+      <c r="Q3" s="151">
+        <v>6.9700930926995044</v>
+      </c>
+      <c r="R3" s="152">
+        <v>10.29776577193992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="147">
+        <v>90.664120508539568</v>
+      </c>
+      <c r="D4" s="148">
+        <v>90.478199061698916</v>
+      </c>
+      <c r="E4" s="148">
+        <v>90.524586429525058</v>
+      </c>
+      <c r="F4" s="148">
+        <v>89.185007367422472</v>
+      </c>
+      <c r="G4" s="148">
+        <v>86.609875517954293</v>
+      </c>
+      <c r="H4" s="149">
+        <v>73.33662344253267</v>
+      </c>
+      <c r="I4" s="145" cm="1">
+        <f t="array" ref="I4">-SUMPRODUCT((D1:H1-C1:G1)*(C4:G4+D4:H4)/2)</f>
+        <v>80.026166604670735</v>
+      </c>
+      <c r="J4" s="146" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    90.6641205085396, 90.4781990616989, 90.5245864295251, 89.1850073674225, 86.6098755179543, 73.3366234425327,</v>
+      </c>
+      <c r="K4" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="69"/>
+      <c r="M4" s="147">
+        <v>3.5401754285279829</v>
+      </c>
+      <c r="N4" s="148">
+        <v>3.9174920258854611</v>
+      </c>
+      <c r="O4" s="148">
+        <v>3.9698130808052361</v>
+      </c>
+      <c r="P4" s="148">
+        <v>5.5336035606832699</v>
+      </c>
+      <c r="Q4" s="148">
+        <v>5.8457163898602484</v>
+      </c>
+      <c r="R4" s="149">
+        <v>7.6914890661564108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="173" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="158" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="147">
+        <v>92.198796414040501</v>
+      </c>
+      <c r="D5" s="148">
+        <v>92.414992055871295</v>
+      </c>
+      <c r="E5" s="148">
+        <v>92.060072607317821</v>
+      </c>
+      <c r="F5" s="148">
+        <v>89.38247447353929</v>
+      </c>
+      <c r="G5" s="148">
+        <v>84.585936441203344</v>
+      </c>
+      <c r="H5" s="149">
+        <v>66.764098305348668</v>
+      </c>
+      <c r="I5" s="145" cm="1">
+        <f t="array" ref="I5">-SUMPRODUCT((D1:H1-C1:G1)*(C5:G5+D5:H5)/2)</f>
+        <v>80.546283632788075</v>
+      </c>
+      <c r="J5" s="146" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    92.1987964140405, 92.4149920558713, 92.0600726073178, 89.3824744735393, 84.5859364412033, 66.7640983053487,</v>
+      </c>
+      <c r="K5" s="173" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="158" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="147">
+        <v>4.0920825520660458</v>
+      </c>
+      <c r="N5" s="148">
+        <v>3.6811518659313718</v>
+      </c>
+      <c r="O5" s="148">
+        <v>3.85785796812947</v>
+      </c>
+      <c r="P5" s="148">
+        <v>5.1846446465102227</v>
+      </c>
+      <c r="Q5" s="148">
+        <v>5.651552347343773</v>
+      </c>
+      <c r="R5" s="149">
+        <v>9.7038681323141347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="173" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="162" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="153">
+        <v>93.422812192723697</v>
+      </c>
+      <c r="D6" s="154">
+        <v>91.884967286337556</v>
+      </c>
+      <c r="E6" s="154">
+        <v>91.219278136777405</v>
+      </c>
+      <c r="F6" s="154">
+        <v>89.511307767944942</v>
+      </c>
+      <c r="G6" s="154">
+        <v>85.221786808997777</v>
+      </c>
+      <c r="H6" s="155">
+        <v>69.864136656314784</v>
+      </c>
+      <c r="I6" s="145" cm="1">
+        <f t="array" ref="I6">-SUMPRODUCT((D1:H1-C1:G1)*(C6:G6+D6:H6)/2)</f>
+        <v>80.615512605357026</v>
+      </c>
+      <c r="J6" s="146" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    93.4228121927237, 91.8849672863376, 91.2192781367774, 89.5113077679449, 85.2217868089978, 69.8641366563148,</v>
+      </c>
+      <c r="K6" s="173" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="162" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="153">
+        <v>3.2252513660301281</v>
+      </c>
+      <c r="N6" s="154">
+        <v>3.7972946157850411</v>
+      </c>
+      <c r="O6" s="154">
+        <v>3.2633028119927521</v>
+      </c>
+      <c r="P6" s="154">
+        <v>3.255882546679346</v>
+      </c>
+      <c r="Q6" s="154">
+        <v>5.2317157915617392</v>
+      </c>
+      <c r="R6" s="155">
+        <v>7.5625760189743341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="143"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
+      <c r="R7" s="152"/>
+    </row>
+    <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="72"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="161" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="150">
+        <v>93.463126843657804</v>
+      </c>
+      <c r="D9" s="151">
+        <v>92.175059184479693</v>
+      </c>
+      <c r="E9" s="151">
+        <v>91.653982012531813</v>
+      </c>
+      <c r="F9" s="151">
+        <v>89.164070046742054</v>
+      </c>
+      <c r="G9" s="151">
+        <v>84.651389717904124</v>
+      </c>
+      <c r="H9" s="152">
+        <v>64.461719680389393</v>
+      </c>
+      <c r="I9" s="145" cm="1">
+        <f t="array" ref="I9">-SUMPRODUCT((D1:H1-C1:G1)*(C9:G9+D9:H9)/2)</f>
+        <v>80.411637067217995</v>
+      </c>
+      <c r="J9" s="146" t="str">
+        <f t="shared" ref="J9:J12" si="1">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:H9)&amp;","</f>
+        <v xml:space="preserve">    93.4631268436578, 92.1750591844797, 91.6539820125318, 89.1640700467421, 84.6513897179041, 64.4617196803894,</v>
+      </c>
+      <c r="K9" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="161" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="150">
+        <v>3.4757775499648642</v>
+      </c>
+      <c r="N9" s="151">
+        <v>3.9625853214368441</v>
+      </c>
+      <c r="O9" s="151">
+        <v>3.885694779483682</v>
+      </c>
+      <c r="P9" s="151">
+        <v>4.0754338376519801</v>
+      </c>
+      <c r="Q9" s="151">
+        <v>4.4754549782690392</v>
+      </c>
+      <c r="R9" s="152">
+        <v>7.534222167299129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="82"/>
+      <c r="B10" s="163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="156">
+        <v>93.093423530191998</v>
+      </c>
+      <c r="D10" s="200">
+        <v>92.032529116457198</v>
+      </c>
+      <c r="E10" s="200">
+        <v>91.460223127651048</v>
+      </c>
+      <c r="F10" s="200">
+        <v>89.435744830549297</v>
+      </c>
+      <c r="G10" s="200">
+        <v>82.989377070735912</v>
+      </c>
+      <c r="H10" s="157">
+        <v>58.198897337635557</v>
+      </c>
+      <c r="I10" s="145" cm="1">
+        <f t="array" ref="I10">-SUMPRODUCT((D1:H1-C1:G1)*(C10:G10+D10:H10)/2)</f>
+        <v>79.847604722647546</v>
+      </c>
+      <c r="J10" s="146" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    93.093423530192, 92.0325291164572, 91.460223127651, 89.4357448305493, 82.9893770707359, 58.1988973376356,</v>
+      </c>
+      <c r="K10" s="82"/>
+      <c r="L10" s="163" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="156">
+        <v>3.7255345666418358</v>
+      </c>
+      <c r="N10" s="200">
+        <v>4.014745502640432</v>
+      </c>
+      <c r="O10" s="200">
+        <v>4.0186014047538423</v>
+      </c>
+      <c r="P10" s="200">
+        <v>4.2976843001776297</v>
+      </c>
+      <c r="Q10" s="200">
+        <v>5.4463720180523856</v>
+      </c>
+      <c r="R10" s="157">
+        <v>8.0197439606429093</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="82"/>
+      <c r="B11" s="163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="156">
+        <v>93.419862340216341</v>
+      </c>
+      <c r="D11" s="200">
+        <v>92.73453634258658</v>
+      </c>
+      <c r="E11" s="200">
+        <v>92.271397964803597</v>
+      </c>
+      <c r="F11" s="200">
+        <v>90.714945631017542</v>
+      </c>
+      <c r="G11" s="200">
+        <v>87.998904258110642</v>
+      </c>
+      <c r="H11" s="157">
+        <v>66.196847146889979</v>
+      </c>
+      <c r="I11" s="145" cm="1">
+        <f t="array" ref="I11">-SUMPRODUCT((D1:H1-C1:G1)*(C11:G11+D11:H11)/2)</f>
+        <v>81.339156048062691</v>
+      </c>
+      <c r="J11" s="146" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    93.4198623402163, 92.7345363425866, 92.2713979648036, 90.7149456310175, 87.9989042581106, 66.19684714689,</v>
+      </c>
+      <c r="K11" s="82"/>
+      <c r="L11" s="163" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="156">
+        <v>3.5802828134576741</v>
+      </c>
+      <c r="N11" s="200">
+        <v>4.0559403662333304</v>
+      </c>
+      <c r="O11" s="200">
+        <v>4.0480488735099982</v>
+      </c>
+      <c r="P11" s="200">
+        <v>3.9309187760649582</v>
+      </c>
+      <c r="Q11" s="200">
+        <v>4.5469182893231572</v>
+      </c>
+      <c r="R11" s="157">
+        <v>8.4486501587333311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="83"/>
+      <c r="B12" s="164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="153">
+        <v>93.423795476892835</v>
+      </c>
+      <c r="D12" s="154">
+        <v>92.436607006404302</v>
+      </c>
+      <c r="E12" s="154">
+        <v>92.06983624425817</v>
+      </c>
+      <c r="F12" s="154">
+        <v>89.286109741433748</v>
+      </c>
+      <c r="G12" s="154">
+        <v>85.108270832792655</v>
+      </c>
+      <c r="H12" s="155">
+        <v>62.343982214379018</v>
+      </c>
+      <c r="I12" s="145" cm="1">
+        <f t="array" ref="I12">-SUMPRODUCT((D1:H1-C1:G1)*(C12:G12+D12:H12)/2)</f>
+        <v>80.523781996384059</v>
+      </c>
+      <c r="J12" s="146" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    93.4237954768928, 92.4366070064043, 92.0698362442582, 89.2861097414337, 85.1082708327927, 62.343982214379,</v>
+      </c>
+      <c r="K12" s="83"/>
+      <c r="L12" s="164" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="153">
+        <v>3.2978061069729612</v>
+      </c>
+      <c r="N12" s="154">
+        <v>3.839215727245314</v>
+      </c>
+      <c r="O12" s="154">
+        <v>3.8733063090154749</v>
+      </c>
+      <c r="P12" s="154">
+        <v>4.7219853917428987</v>
+      </c>
+      <c r="Q12" s="154">
+        <v>4.6095110377486659</v>
+      </c>
+      <c r="R12" s="155">
+        <v>7.4833403587430967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="196" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="197"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="197"/>
+      <c r="H13" s="198"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="196" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="197"/>
+      <c r="M13" s="197"/>
+      <c r="N13" s="197"/>
+      <c r="O13" s="197"/>
+      <c r="P13" s="197"/>
+      <c r="Q13" s="197"/>
+      <c r="R13" s="198"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="161" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="178">
+        <v>91.49957756266636</v>
+      </c>
+      <c r="D14" s="179">
+        <v>91.573289272975259</v>
+      </c>
+      <c r="E14" s="179">
+        <v>89.197550728524192</v>
+      </c>
+      <c r="F14" s="179">
+        <v>81.999449245524048</v>
+      </c>
+      <c r="G14" s="179">
+        <v>76.523637747731371</v>
+      </c>
+      <c r="H14" s="180">
+        <v>53.110623794323473</v>
+      </c>
+      <c r="I14" s="145" cm="1">
+        <f t="array" ref="I14">-SUMPRODUCT((D1:H1-C1:G1)*(C14:G14+D14:H14)/2)</f>
+        <v>77.008030778812966</v>
+      </c>
+      <c r="J14" s="146" t="str">
+        <f t="shared" ref="J14:J17" si="2">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C14:H14)&amp;","</f>
+        <v xml:space="preserve">    91.4995775626664, 91.5732892729753, 89.1975507285242, 81.999449245524, 76.5236377477314, 53.1106237943235,</v>
+      </c>
+      <c r="K14" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="161" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="178">
+        <v>4.0298664583527373</v>
+      </c>
+      <c r="N14" s="179">
+        <v>3.7536582545684931</v>
+      </c>
+      <c r="O14" s="179">
+        <v>4.779079559693427</v>
+      </c>
+      <c r="P14" s="179">
+        <v>5.8099787798580724</v>
+      </c>
+      <c r="Q14" s="179">
+        <v>6.5930521237231261</v>
+      </c>
+      <c r="R14" s="180">
+        <v>6.3444388569949144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="82"/>
+      <c r="B15" s="163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="181">
+        <v>92.353988067947554</v>
+      </c>
+      <c r="D15" s="101">
+        <v>92.133726647000984</v>
+      </c>
+      <c r="E15" s="101">
+        <v>91.765000850641769</v>
+      </c>
+      <c r="F15" s="101">
+        <v>90.137034057388036</v>
+      </c>
+      <c r="G15" s="101">
+        <v>86.241815817322518</v>
+      </c>
+      <c r="H15" s="182">
+        <v>67.609800546140818</v>
+      </c>
+      <c r="I15" s="145" cm="1">
+        <f t="array" ref="I15">-SUMPRODUCT((D1:H1-C1:G1)*(C15:G15+D15:H15)/2)</f>
+        <v>80.750032079285589</v>
+      </c>
+      <c r="J15" s="146" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    92.3539880679476, 92.133726647001, 91.7650008506418, 90.137034057388, 86.2418158173225, 67.6098005461408,</v>
+      </c>
+      <c r="K15" s="82"/>
+      <c r="L15" s="163" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="181">
+        <v>3.603874809326058</v>
+      </c>
+      <c r="N15" s="101">
+        <v>3.6313977016654562</v>
+      </c>
+      <c r="O15" s="101">
+        <v>3.749014572335764</v>
+      </c>
+      <c r="P15" s="101">
+        <v>3.6809224083418872</v>
+      </c>
+      <c r="Q15" s="101">
+        <v>4.5442508858284896</v>
+      </c>
+      <c r="R15" s="182">
+        <v>9.5707635580771555</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="82"/>
+      <c r="B16" s="163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="181">
+        <v>91.800439450168241</v>
+      </c>
+      <c r="D16" s="101">
+        <v>91.982404692082113</v>
+      </c>
+      <c r="E16" s="101">
+        <v>90.375764496232676</v>
+      </c>
+      <c r="F16" s="101">
+        <v>82.608477005279738</v>
+      </c>
+      <c r="G16" s="101">
+        <v>76.941265351199704</v>
+      </c>
+      <c r="H16" s="182">
+        <v>51.845635919572558</v>
+      </c>
+      <c r="I16" s="145" cm="1">
+        <f t="array" ref="I16">-SUMPRODUCT((D1:H1-C1:G1)*(C16:G16+D16:H16)/2)</f>
+        <v>77.482882997834466</v>
+      </c>
+      <c r="J16" s="146" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    91.8004394501682, 91.9824046920821, 90.3757644962327, 82.6084770052797, 76.9412653511997, 51.8456359195726,</v>
+      </c>
+      <c r="K16" s="82"/>
+      <c r="L16" s="163" t="s">
+        <v>5</v>
+      </c>
+      <c r="M16" s="181">
+        <v>3.6349640878186351</v>
+      </c>
+      <c r="N16" s="101">
+        <v>3.7961233398255212</v>
+      </c>
+      <c r="O16" s="101">
+        <v>3.9494198597156931</v>
+      </c>
+      <c r="P16" s="101">
+        <v>5.7389509725526704</v>
+      </c>
+      <c r="Q16" s="101">
+        <v>6.6269044703598876</v>
+      </c>
+      <c r="R16" s="182">
+        <v>5.3004339461274297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="83"/>
+      <c r="B17" s="164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="183">
+        <v>91.402791834992783</v>
+      </c>
+      <c r="D17" s="184">
+        <v>91.840834839978427</v>
+      </c>
+      <c r="E17" s="184">
+        <v>90.587458945723284</v>
+      </c>
+      <c r="F17" s="184">
+        <v>85.402137273390494</v>
+      </c>
+      <c r="G17" s="184">
+        <v>77.705072419888282</v>
+      </c>
+      <c r="H17" s="185">
+        <v>52.010415315011372</v>
+      </c>
+      <c r="I17" s="145" cm="1">
+        <f t="array" ref="I17">-SUMPRODUCT((D1:H1-C1:G1)*(C17:G17+D17:H17)/2)</f>
+        <v>77.949084550904402</v>
+      </c>
+      <c r="J17" s="146" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    91.4027918349928, 91.8408348399784, 90.5874589457233, 85.4021372733905, 77.7050724198883, 52.0104153150114,</v>
+      </c>
+      <c r="K17" s="83"/>
+      <c r="L17" s="164" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="183">
+        <v>4.0408661273257893</v>
+      </c>
+      <c r="N17" s="184">
+        <v>4.0409012825192869</v>
+      </c>
+      <c r="O17" s="184">
+        <v>4.1940164386666767</v>
+      </c>
+      <c r="P17" s="184">
+        <v>4.510756604304313</v>
+      </c>
+      <c r="Q17" s="184">
+        <v>5.0196404058630639</v>
+      </c>
+      <c r="R17" s="185">
+        <v>5.37991625378893</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="177" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="166" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="168">
+        <v>1</v>
+      </c>
+      <c r="D19" s="168">
+        <v>0.75</v>
+      </c>
+      <c r="E19" s="168">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="168">
+        <v>0.3</v>
+      </c>
+      <c r="G19" s="168">
+        <v>0.2</v>
+      </c>
+      <c r="H19" s="166">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="125"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="177" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="166" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="170">
+        <v>1</v>
+      </c>
+      <c r="N19" s="170">
+        <v>0.75</v>
+      </c>
+      <c r="O19" s="170">
+        <v>0.5</v>
+      </c>
+      <c r="P19" s="170">
+        <v>0.3</v>
+      </c>
+      <c r="Q19" s="170">
+        <v>0.2</v>
+      </c>
+      <c r="R19" s="171">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="85"/>
+      <c r="C20" s="127">
+        <v>92.866950218042462</v>
+      </c>
+      <c r="D20" s="128">
+        <v>91.242690764745561</v>
+      </c>
+      <c r="E20" s="128">
+        <v>90.137053227698445</v>
+      </c>
+      <c r="F20" s="128">
+        <v>86.080152926613408</v>
+      </c>
+      <c r="G20" s="128">
+        <v>77.410217255196784</v>
+      </c>
+      <c r="H20" s="129">
+        <v>59.676194764980139</v>
+      </c>
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="85"/>
+      <c r="M20" s="127">
+        <v>3.8319643020864191</v>
+      </c>
+      <c r="N20" s="128">
+        <v>4.3603246705255447</v>
+      </c>
+      <c r="O20" s="128">
+        <v>4.7987735191879262</v>
+      </c>
+      <c r="P20" s="128">
+        <v>5.1262965367330251</v>
+      </c>
+      <c r="Q20" s="128">
+        <v>7.087258799823358</v>
+      </c>
+      <c r="R20" s="129">
+        <v>9.7457736576346736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="80"/>
+      <c r="C21" s="130">
+        <v>90.52770446578225</v>
+      </c>
+      <c r="D21" s="131">
+        <v>90.342410185071145</v>
+      </c>
+      <c r="E21" s="131">
+        <v>88.855134780158878</v>
+      </c>
+      <c r="F21" s="131">
+        <v>86.392551450858122</v>
+      </c>
+      <c r="G21" s="131">
+        <v>83.730938565201825</v>
+      </c>
+      <c r="H21" s="132">
+        <v>62.869764156729879</v>
+      </c>
+      <c r="I21" s="126"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="80"/>
+      <c r="M21" s="127">
+        <v>4.0901656450530481</v>
+      </c>
+      <c r="N21" s="128">
+        <v>4.6901296175247245</v>
+      </c>
+      <c r="O21" s="128">
+        <v>5.7331503658977514</v>
+      </c>
+      <c r="P21" s="128">
+        <v>7.1150709678028736</v>
+      </c>
+      <c r="Q21" s="128">
+        <v>7.2945876922705306</v>
+      </c>
+      <c r="R21" s="129">
+        <v>11.39436528430654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="80"/>
+      <c r="C22" s="127">
+        <v>89.97817765654861</v>
+      </c>
+      <c r="D22" s="128">
+        <v>89.843877293314875</v>
+      </c>
+      <c r="E22" s="128">
+        <v>89.806880369940572</v>
+      </c>
+      <c r="F22" s="128">
+        <v>88.456307031391773</v>
+      </c>
+      <c r="G22" s="128">
+        <v>85.874347222050872</v>
+      </c>
+      <c r="H22" s="129">
+        <v>72.361626989881074</v>
+      </c>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="80"/>
+      <c r="M22" s="127">
+        <v>3.9649646983544202</v>
+      </c>
+      <c r="N22" s="128">
+        <v>4.170593930476838</v>
+      </c>
+      <c r="O22" s="128">
+        <v>4.2923972045274397</v>
+      </c>
+      <c r="P22" s="128">
+        <v>6.0979560195091933</v>
+      </c>
+      <c r="Q22" s="128">
+        <v>6.2812773129576227</v>
+      </c>
+      <c r="R22" s="129">
+        <v>8.3484452530393831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="176" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="165" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="127">
+        <v>91.774607805301983</v>
+      </c>
+      <c r="D23" s="128">
+        <v>91.995252385465662</v>
+      </c>
+      <c r="E23" s="128">
+        <v>91.677335926075884</v>
+      </c>
+      <c r="F23" s="128">
+        <v>88.879299451861826</v>
+      </c>
+      <c r="G23" s="128">
+        <v>83.985258595887942</v>
+      </c>
+      <c r="H23" s="129">
+        <v>65.731292630891019</v>
+      </c>
+      <c r="I23" s="126"/>
+      <c r="J23" s="126"/>
+      <c r="K23" s="176" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="165" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="127">
+        <v>4.4544832367332772</v>
+      </c>
+      <c r="N23" s="128">
+        <v>4.0297709477642663</v>
+      </c>
+      <c r="O23" s="128">
+        <v>4.1710876436936273</v>
+      </c>
+      <c r="P23" s="128">
+        <v>5.4579882837225497</v>
+      </c>
+      <c r="Q23" s="128">
+        <v>5.9477145691105049</v>
+      </c>
+      <c r="R23" s="129">
+        <v>10.175415058463971</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="176" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="177" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="127">
+        <v>92.976160289720326</v>
+      </c>
+      <c r="D24" s="128">
+        <v>91.458234182656923</v>
+      </c>
+      <c r="E24" s="128">
+        <v>90.726064532321843</v>
+      </c>
+      <c r="F24" s="128">
+        <v>89.020295751977415</v>
+      </c>
+      <c r="G24" s="128">
+        <v>84.508536749906014</v>
+      </c>
+      <c r="H24" s="129">
+        <v>68.710875881175554</v>
+      </c>
+      <c r="I24" s="126"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="176" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="177" t="s">
+        <v>14</v>
+      </c>
+      <c r="M24" s="127">
+        <v>3.621821167197139</v>
+      </c>
+      <c r="N24" s="128">
+        <v>4.0726710380082025</v>
+      </c>
+      <c r="O24" s="128">
+        <v>3.4884808134500442</v>
+      </c>
+      <c r="P24" s="128">
+        <v>3.3964980255654078</v>
+      </c>
+      <c r="Q24" s="128">
+        <v>5.6839465833440732</v>
+      </c>
+      <c r="R24" s="129">
+        <v>8.1802984888020767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="133"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="135"/>
+      <c r="Q25" s="135"/>
+      <c r="R25" s="136"/>
+    </row>
+    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="126"/>
+      <c r="K26" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="75"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="169" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="130">
+        <v>93.091828978938523</v>
+      </c>
+      <c r="D27" s="131">
+        <v>91.816438491814012</v>
+      </c>
+      <c r="E27" s="131">
+        <v>91.294211183013203</v>
+      </c>
+      <c r="F27" s="131">
+        <v>88.679974438278407</v>
+      </c>
+      <c r="G27" s="131">
+        <v>83.996989069550324</v>
+      </c>
+      <c r="H27" s="132">
+        <v>63.603124077705665</v>
+      </c>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="K27" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="169" t="s">
+        <v>2</v>
+      </c>
+      <c r="M27" s="130">
+        <v>3.8179364837137477</v>
+      </c>
+      <c r="N27" s="131">
+        <v>4.1921650670878448</v>
+      </c>
+      <c r="O27" s="131">
+        <v>4.1546303917469922</v>
+      </c>
+      <c r="P27" s="131">
+        <v>4.3418762018177972</v>
+      </c>
+      <c r="Q27" s="131">
+        <v>4.7010261529570423</v>
+      </c>
+      <c r="R27" s="132">
+        <v>7.7610004583710603</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="77"/>
+      <c r="B28" s="172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="138">
+        <v>92.735279794691138</v>
+      </c>
+      <c r="D28" s="199">
+        <v>91.664680530833593</v>
+      </c>
+      <c r="E28" s="199">
+        <v>91.044276855644057</v>
+      </c>
+      <c r="F28" s="199">
+        <v>89.059716819932788</v>
+      </c>
+      <c r="G28" s="199">
+        <v>82.559219226002583</v>
+      </c>
+      <c r="H28" s="139">
+        <v>56.911896986388975</v>
+      </c>
+      <c r="I28" s="126"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="172" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" s="138">
+        <v>4.0434132241778213</v>
+      </c>
+      <c r="N28" s="199">
+        <v>4.2691437950202129</v>
+      </c>
+      <c r="O28" s="199">
+        <v>4.340477664588267</v>
+      </c>
+      <c r="P28" s="199">
+        <v>4.5058698538787123</v>
+      </c>
+      <c r="Q28" s="199">
+        <v>5.6232311188231616</v>
+      </c>
+      <c r="R28" s="139">
+        <v>8.593216541703864</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="77"/>
+      <c r="B29" s="172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="138">
+        <v>93.080002011501648</v>
+      </c>
+      <c r="D29" s="199">
+        <v>92.404699684527174</v>
+      </c>
+      <c r="E29" s="199">
+        <v>91.954665470304633</v>
+      </c>
+      <c r="F29" s="199">
+        <v>90.330159265971631</v>
+      </c>
+      <c r="G29" s="199">
+        <v>87.581623871243721</v>
+      </c>
+      <c r="H29" s="139">
+        <v>65.444409478323934</v>
+      </c>
+      <c r="I29" s="126"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="172" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="138">
+        <v>3.9102661302704655</v>
+      </c>
+      <c r="N29" s="199">
+        <v>4.3598859096399458</v>
+      </c>
+      <c r="O29" s="199">
+        <v>4.2712793015123891</v>
+      </c>
+      <c r="P29" s="199">
+        <v>4.1574178865306539</v>
+      </c>
+      <c r="Q29" s="199">
+        <v>4.7707037217115724</v>
+      </c>
+      <c r="R29" s="139">
+        <v>8.6315293901629762</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="78"/>
+      <c r="B30" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="140">
+        <v>92.97183841556577</v>
+      </c>
+      <c r="D30" s="141">
+        <v>92.103907277651757</v>
+      </c>
+      <c r="E30" s="141">
+        <v>91.729197391076127</v>
+      </c>
+      <c r="F30" s="141">
+        <v>88.909951088566785</v>
+      </c>
+      <c r="G30" s="141">
+        <v>84.714894537983682</v>
+      </c>
+      <c r="H30" s="142">
+        <v>61.620187860136021</v>
+      </c>
+      <c r="I30" s="126"/>
+      <c r="J30" s="126"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="140">
+        <v>3.6900964523635289</v>
+      </c>
+      <c r="N30" s="141">
+        <v>4.0982333495079848</v>
+      </c>
+      <c r="O30" s="141">
+        <v>4.1424958783803678</v>
+      </c>
+      <c r="P30" s="141">
+        <v>4.9147660267528899</v>
+      </c>
+      <c r="Q30" s="141">
+        <v>4.7218856274545509</v>
+      </c>
+      <c r="R30" s="142">
+        <v>7.8718932836851945</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="194"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="195"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="194"/>
+      <c r="M31" s="194"/>
+      <c r="N31" s="194"/>
+      <c r="O31" s="194"/>
+      <c r="P31" s="194"/>
+      <c r="Q31" s="194"/>
+      <c r="R31" s="195"/>
+    </row>
+    <row r="32" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="169" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="186">
+        <v>90.931243260036453</v>
+      </c>
+      <c r="D32" s="187">
+        <v>91.082357714265669</v>
+      </c>
+      <c r="E32" s="187">
+        <v>88.655711907744944</v>
+      </c>
+      <c r="F32" s="187">
+        <v>81.214805002907326</v>
+      </c>
+      <c r="G32" s="187">
+        <v>75.661714061962343</v>
+      </c>
+      <c r="H32" s="188">
+        <v>52.244835902663532</v>
+      </c>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="L32" s="169" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="186">
+        <v>4.5057436776580992</v>
+      </c>
+      <c r="N32" s="187">
+        <v>4.0550522183539899</v>
+      </c>
+      <c r="O32" s="187">
+        <v>5.1915264166385819</v>
+      </c>
+      <c r="P32" s="187">
+        <v>6.295747790034012</v>
+      </c>
+      <c r="Q32" s="187">
+        <v>6.9586260314854194</v>
+      </c>
+      <c r="R32" s="188">
+        <v>6.6746674701315607</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="77"/>
+      <c r="B33" s="172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="189">
+        <v>91.872079363951016</v>
+      </c>
+      <c r="D33" s="110">
+        <v>91.684900567356891</v>
+      </c>
+      <c r="E33" s="110">
+        <v>91.380966800670592</v>
+      </c>
+      <c r="F33" s="110">
+        <v>89.858157735134256</v>
+      </c>
+      <c r="G33" s="110">
+        <v>85.956224613701878</v>
+      </c>
+      <c r="H33" s="190">
+        <v>67.001420055173739</v>
+      </c>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="172" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="189">
+        <v>3.995248390871974</v>
+      </c>
+      <c r="N33" s="110">
+        <v>3.9773804093196805</v>
+      </c>
+      <c r="O33" s="110">
+        <v>3.947656073981153</v>
+      </c>
+      <c r="P33" s="110">
+        <v>3.7871846273753924</v>
+      </c>
+      <c r="Q33" s="110">
+        <v>4.6030680163158832</v>
+      </c>
+      <c r="R33" s="190">
+        <v>9.7860097008678171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="77"/>
+      <c r="B34" s="172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="189">
+        <v>91.422732210087531</v>
+      </c>
+      <c r="D34" s="110">
+        <v>91.628764604827211</v>
+      </c>
+      <c r="E34" s="110">
+        <v>89.843906269406475</v>
+      </c>
+      <c r="F34" s="110">
+        <v>81.866384471789445</v>
+      </c>
+      <c r="G34" s="110">
+        <v>76.308676619695916</v>
+      </c>
+      <c r="H34" s="190">
+        <v>50.964103346303737</v>
+      </c>
+      <c r="I34" s="126"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="172" t="s">
+        <v>5</v>
+      </c>
+      <c r="M34" s="189">
+        <v>3.917177900536299</v>
+      </c>
+      <c r="N34" s="110">
+        <v>4.0890601272961096</v>
+      </c>
+      <c r="O34" s="110">
+        <v>4.3937083258425353</v>
+      </c>
+      <c r="P34" s="110">
+        <v>6.1123504217632805</v>
+      </c>
+      <c r="Q34" s="110">
+        <v>6.7941736801169661</v>
+      </c>
+      <c r="R34" s="190">
+        <v>5.5260013746794829</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="78"/>
+      <c r="B35" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="191">
+        <v>90.985844496554918</v>
+      </c>
+      <c r="D35" s="192">
+        <v>91.355333965943203</v>
+      </c>
+      <c r="E35" s="192">
+        <v>90.056686676188946</v>
+      </c>
+      <c r="F35" s="192">
+        <v>84.819033215472516</v>
+      </c>
+      <c r="G35" s="192">
+        <v>77.063476400804475</v>
+      </c>
+      <c r="H35" s="193">
+        <v>51.089038185296396</v>
+      </c>
+      <c r="I35" s="126"/>
+      <c r="J35" s="126"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="191">
+        <v>4.3376511535473963</v>
+      </c>
+      <c r="N35" s="192">
+        <v>4.420312980473601</v>
+      </c>
+      <c r="O35" s="192">
+        <v>4.6011804213694694</v>
+      </c>
+      <c r="P35" s="192">
+        <v>4.8992778070368752</v>
+      </c>
+      <c r="Q35" s="192">
+        <v>5.342884708835431</v>
+      </c>
+      <c r="R35" s="193">
+        <v>5.5127562295818278</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="K31:R31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A3:A4">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B3 A4">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:B4">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:B21">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B24">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:H26">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:H31">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:H2">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:H4">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K4">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:L3 K4">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:L4">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:L6">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:L21">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:L24">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:R8">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:R13">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:R26">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:R31">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I17 I5:I6 C5:H7 I8:I14">
+    <cfRule type="colorScale" priority="478">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="479">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:H17 A13:H13 C3:H3 A5:H8">
+    <cfRule type="colorScale" priority="571">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="572">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:H17 C3:H6">
+    <cfRule type="colorScale" priority="581">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:H17">
+    <cfRule type="colorScale" priority="583">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:H17 I2:I17 C3:H3 C5:H7">
+    <cfRule type="colorScale" priority="585">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:H17">
+    <cfRule type="colorScale" priority="590">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="591">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:I17 I9:I12 C3:I6 I2">
+    <cfRule type="colorScale" priority="618">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I17 I9:I12 I2:I6">
+    <cfRule type="colorScale" priority="622">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:H12">
+    <cfRule type="colorScale" priority="770">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="771">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="772">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I12">
+    <cfRule type="colorScale" priority="773">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:B10 A12:B12">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:B11">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:B15 A17:B17">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:B16">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:L10 K12:L12">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:L11">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:L15 K17:L17">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:L16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:I3 I2 I4:I17">
+    <cfRule type="colorScale" priority="826">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="827">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="828">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="829">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="830">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I17 C3:H3 C5:H7">
+    <cfRule type="colorScale" priority="846">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I17">
+    <cfRule type="colorScale" priority="850">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I6 I9:I12 I14:I17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B9E2AD-B27D-44F5-B52F-A3DA851B8214}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1004,10 +3811,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="85"/>
+      <c r="B2" s="68"/>
       <c r="C2" s="25">
         <v>93.273358766079312</v>
       </c>
@@ -1034,10 +3841,10 @@
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:H2)&amp;","</f>
         <v xml:space="preserve">    93.2733587660793, 91.6155877934354, 90.6205330495939, 86.5975138193237, 78.2243502683126, 60.8549929786013,</v>
       </c>
-      <c r="K2" s="69" t="s">
+      <c r="K2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="85"/>
+      <c r="L2" s="68"/>
       <c r="M2" s="28">
         <v>3.4672469457762647</v>
       </c>
@@ -1058,10 +3865,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="25">
         <v>91.183040799084182</v>
       </c>
@@ -1088,10 +3895,10 @@
         <f t="shared" ref="J3:J6" si="0">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C3:H3)&amp;","</f>
         <v xml:space="preserve">    91.1830407990842, 90.993376528632, 89.5759940253232, 87.0757474833981, 84.5026341058314, 64.5357139767645,</v>
       </c>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="70"/>
+      <c r="L3" s="69"/>
       <c r="M3" s="28">
         <v>3.6304356896667822</v>
       </c>
@@ -1112,10 +3919,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="25">
         <v>90.664120508539568</v>
       </c>
@@ -1142,10 +3949,10 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve">    90.6641205085396, 90.4781990616989, 90.5245864295251, 89.1850073674225, 86.6098755179543, 73.3366234425327,</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="70"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="25">
         <v>3.5401754285279829</v>
       </c>
@@ -1302,31 +4109,31 @@
       <c r="R7" s="30"/>
     </row>
     <row r="8" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="72"/>
       <c r="I8" s="23"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="71" t="s">
+      <c r="K8" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="73"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="72"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="46" t="s">
@@ -1358,7 +4165,7 @@
         <f t="shared" ref="J9:J15" si="1">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C9:H9)&amp;","</f>
         <v xml:space="preserve">    93.3176065536899, 92.8200935994256, 92.1415986874166, 90.8230203836827, 85.5312502703311, 65.1962185370692,</v>
       </c>
-      <c r="K9" s="74" t="s">
+      <c r="K9" s="81" t="s">
         <v>0</v>
       </c>
       <c r="L9" s="46" t="s">
@@ -1384,7 +4191,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="75"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="52" t="s">
         <v>2</v>
       </c>
@@ -1414,7 +4221,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.4631268436578, 92.1750591844797, 91.6539820125318, 89.1640700467421, 84.6513897179041, 64.4617196803894,</v>
       </c>
-      <c r="K10" s="75"/>
+      <c r="K10" s="82"/>
       <c r="L10" s="52" t="s">
         <v>2</v>
       </c>
@@ -1438,7 +4245,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="75"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="52" t="s">
         <v>3</v>
       </c>
@@ -1468,7 +4275,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.3470993117011, 92.3844929454407, 91.818173167588, 89.6642012474156, 85.9374014192741, 66.9514211483952,</v>
       </c>
-      <c r="K11" s="75"/>
+      <c r="K11" s="82"/>
       <c r="L11" s="52" t="s">
         <v>3</v>
       </c>
@@ -1492,7 +4299,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="52" t="s">
         <v>4</v>
       </c>
@@ -1522,7 +4329,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.093423530192, 92.0325291164572, 91.460223127651, 89.4357448305493, 82.9893770707359, 58.1988973376356,</v>
       </c>
-      <c r="K12" s="75"/>
+      <c r="K12" s="82"/>
       <c r="L12" s="52" t="s">
         <v>4</v>
       </c>
@@ -1546,7 +4353,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="75"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="52" t="s">
         <v>5</v>
       </c>
@@ -1576,7 +4383,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.4198623402163, 92.7345363425866, 92.2713979648036, 90.7149456310175, 87.9989042581106, 66.19684714689,</v>
       </c>
-      <c r="K13" s="75"/>
+      <c r="K13" s="82"/>
       <c r="L13" s="52" t="s">
         <v>5</v>
       </c>
@@ -1600,7 +4407,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="75"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="52" t="s">
         <v>6</v>
       </c>
@@ -1630,7 +4437,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.4237954768928, 92.4366070064043, 92.0698362442582, 89.2861097414337, 85.1082708327927, 62.343982214379,</v>
       </c>
-      <c r="K14" s="75"/>
+      <c r="K14" s="82"/>
       <c r="L14" s="52" t="s">
         <v>6</v>
       </c>
@@ -1654,7 +4461,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="53" t="s">
         <v>7</v>
       </c>
@@ -1684,7 +4491,7 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve">    93.4965585054081, 92.7138816079724, 92.345144277488, 91.0076442414439, 87.3342474127516, 66.0653004495425,</v>
       </c>
-      <c r="K15" s="76"/>
+      <c r="K15" s="83"/>
       <c r="L15" s="53" t="s">
         <v>7</v>
       </c>
@@ -1728,242 +4535,410 @@
       <c r="R16" s="36"/>
     </row>
     <row r="17" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="72"/>
       <c r="I17" s="23"/>
       <c r="J17" s="24"/>
-      <c r="K17" s="71" t="s">
+      <c r="K17" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="73"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="72"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
+      <c r="C18" s="116">
+        <v>90.805338569826162</v>
+      </c>
+      <c r="D18" s="117">
+        <v>89.893932185111169</v>
+      </c>
+      <c r="E18" s="117">
+        <v>87.702595466512108</v>
+      </c>
+      <c r="F18" s="117">
+        <v>84.326807902029159</v>
+      </c>
+      <c r="G18" s="117">
+        <v>80.856293451212096</v>
+      </c>
+      <c r="H18" s="118">
+        <v>62.103475520261128</v>
+      </c>
       <c r="I18" s="23" cm="1">
         <f t="array" ref="I18">-SUMPRODUCT((D1:H1-C1:G1)*(C18:G18+D18:H18)/2)</f>
-        <v>0</v>
+        <v>77.397058653909923</v>
       </c>
       <c r="J18" s="24" t="str">
         <f t="shared" ref="J18:J24" si="2">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C18:H18)&amp;","</f>
-        <v xml:space="preserve">    ,</v>
-      </c>
-      <c r="K18" s="74" t="s">
+        <v xml:space="preserve">    90.8053385698262, 89.8939321851112, 87.7025954665121, 84.3268079020292, 80.8562934512121, 62.1034755202611,</v>
+      </c>
+      <c r="K18" s="81" t="s">
         <v>0</v>
       </c>
       <c r="L18" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="30"/>
+      <c r="M18" s="178">
+        <v>4.2224462224326453</v>
+      </c>
+      <c r="N18" s="179">
+        <v>4.3262075480804407</v>
+      </c>
+      <c r="O18" s="179">
+        <v>4.3655747248591146</v>
+      </c>
+      <c r="P18" s="179">
+        <v>5.9827325798621898</v>
+      </c>
+      <c r="Q18" s="179">
+        <v>6.7169158033743877</v>
+      </c>
+      <c r="R18" s="180">
+        <v>9.2164503829621349</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="75"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="36"/>
+      <c r="C19" s="119">
+        <v>91.49957756266636</v>
+      </c>
+      <c r="D19" s="101">
+        <v>91.573289272975259</v>
+      </c>
+      <c r="E19" s="101">
+        <v>89.197550728524192</v>
+      </c>
+      <c r="F19" s="101">
+        <v>81.999449245524048</v>
+      </c>
+      <c r="G19" s="101">
+        <v>76.523637747731371</v>
+      </c>
+      <c r="H19" s="120">
+        <v>53.110623794323473</v>
+      </c>
       <c r="I19" s="23" cm="1">
         <f t="array" ref="I19">-SUMPRODUCT((D1:H1-C1:G1)*(C19:G19+D19:H19)/2)</f>
-        <v>0</v>
+        <v>77.008030778812966</v>
       </c>
       <c r="J19" s="24" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-      <c r="K19" s="75"/>
+        <v xml:space="preserve">    91.4995775626664, 91.5732892729753, 89.1975507285242, 81.999449245524, 76.5236377477314, 53.1106237943235,</v>
+      </c>
+      <c r="K19" s="82"/>
       <c r="L19" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="36"/>
+      <c r="M19" s="181">
+        <v>4.0298664583527373</v>
+      </c>
+      <c r="N19" s="101">
+        <v>3.7536582545684931</v>
+      </c>
+      <c r="O19" s="101">
+        <v>4.779079559693427</v>
+      </c>
+      <c r="P19" s="101">
+        <v>5.8099787798580724</v>
+      </c>
+      <c r="Q19" s="101">
+        <v>6.5930521237231261</v>
+      </c>
+      <c r="R19" s="182">
+        <v>6.3444388569949144</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="75"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="36"/>
+      <c r="C20" s="119">
+        <v>91.785730557069428</v>
+      </c>
+      <c r="D20" s="101">
+        <v>91.804389888032503</v>
+      </c>
+      <c r="E20" s="101">
+        <v>90.516287626478899</v>
+      </c>
+      <c r="F20" s="101">
+        <v>83.734666101494568</v>
+      </c>
+      <c r="G20" s="101">
+        <v>78.459603168424181</v>
+      </c>
+      <c r="H20" s="120">
+        <v>52.256250774949038</v>
+      </c>
       <c r="I20" s="23" cm="1">
         <f t="array" ref="I20">-SUMPRODUCT((D1:H1-C1:G1)*(C20:G20+D20:H20)/2)</f>
-        <v>0</v>
+        <v>77.809451278413604</v>
       </c>
       <c r="J20" s="24" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-      <c r="K20" s="75"/>
+        <v xml:space="preserve">    91.7857305570694, 91.8043898880325, 90.5162876264789, 83.7346661014946, 78.4596031684242, 52.256250774949,</v>
+      </c>
+      <c r="K20" s="82"/>
       <c r="L20" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="181">
+        <v>4.136996790032649</v>
+      </c>
+      <c r="N20" s="101">
+        <v>3.8377000659019229</v>
+      </c>
+      <c r="O20" s="101">
+        <v>4.0970153086962888</v>
+      </c>
+      <c r="P20" s="101">
+        <v>5.1754411789167163</v>
+      </c>
+      <c r="Q20" s="101">
+        <v>6.0141034610368287</v>
+      </c>
+      <c r="R20" s="182">
+        <v>4.8329152396440529</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="75"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="36"/>
+      <c r="C21" s="119">
+        <v>92.353988067947554</v>
+      </c>
+      <c r="D21" s="101">
+        <v>92.133726647000984</v>
+      </c>
+      <c r="E21" s="101">
+        <v>91.765000850641769</v>
+      </c>
+      <c r="F21" s="101">
+        <v>90.137034057388036</v>
+      </c>
+      <c r="G21" s="101">
+        <v>86.241815817322518</v>
+      </c>
+      <c r="H21" s="120">
+        <v>67.609800546140818</v>
+      </c>
       <c r="I21" s="23" cm="1">
         <f t="array" ref="I21">-SUMPRODUCT((D1:H1-C1:G1)*(C21:G21+D21:H21)/2)</f>
-        <v>0</v>
+        <v>80.750032079285589</v>
       </c>
       <c r="J21" s="24" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-      <c r="K21" s="75"/>
+        <v xml:space="preserve">    92.3539880679476, 92.133726647001, 91.7650008506418, 90.137034057388, 86.2418158173225, 67.6098005461408,</v>
+      </c>
+      <c r="K21" s="82"/>
       <c r="L21" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="36"/>
+      <c r="M21" s="181">
+        <v>3.603874809326058</v>
+      </c>
+      <c r="N21" s="101">
+        <v>3.6313977016654562</v>
+      </c>
+      <c r="O21" s="101">
+        <v>3.749014572335764</v>
+      </c>
+      <c r="P21" s="101">
+        <v>3.6809224083418872</v>
+      </c>
+      <c r="Q21" s="101">
+        <v>4.5442508858284896</v>
+      </c>
+      <c r="R21" s="182">
+        <v>9.5707635580771555</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="75"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="36"/>
+      <c r="C22" s="119">
+        <v>91.800439450168241</v>
+      </c>
+      <c r="D22" s="101">
+        <v>91.982404692082113</v>
+      </c>
+      <c r="E22" s="101">
+        <v>90.375764496232676</v>
+      </c>
+      <c r="F22" s="101">
+        <v>82.608477005279738</v>
+      </c>
+      <c r="G22" s="101">
+        <v>76.941265351199704</v>
+      </c>
+      <c r="H22" s="120">
+        <v>51.845635919572558</v>
+      </c>
       <c r="I22" s="23" cm="1">
         <f t="array" ref="I22">-SUMPRODUCT((D1:H1-C1:G1)*(C22:G22+D22:H22)/2)</f>
-        <v>0</v>
+        <v>77.482882997834466</v>
       </c>
       <c r="J22" s="24" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-      <c r="K22" s="75"/>
+        <v xml:space="preserve">    91.8004394501682, 91.9824046920821, 90.3757644962327, 82.6084770052797, 76.9412653511997, 51.8456359195726,</v>
+      </c>
+      <c r="K22" s="82"/>
       <c r="L22" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="36"/>
+      <c r="M22" s="181">
+        <v>3.6349640878186351</v>
+      </c>
+      <c r="N22" s="101">
+        <v>3.7961233398255212</v>
+      </c>
+      <c r="O22" s="101">
+        <v>3.9494198597156931</v>
+      </c>
+      <c r="P22" s="101">
+        <v>5.7389509725526704</v>
+      </c>
+      <c r="Q22" s="101">
+        <v>6.6269044703598876</v>
+      </c>
+      <c r="R22" s="182">
+        <v>5.3004339461274297</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="75"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="36"/>
+      <c r="C23" s="119">
+        <v>91.402791834992783</v>
+      </c>
+      <c r="D23" s="101">
+        <v>91.840834839978427</v>
+      </c>
+      <c r="E23" s="101">
+        <v>90.587458945723284</v>
+      </c>
+      <c r="F23" s="101">
+        <v>85.402137273390494</v>
+      </c>
+      <c r="G23" s="101">
+        <v>77.705072419888282</v>
+      </c>
+      <c r="H23" s="120">
+        <v>52.010415315011372</v>
+      </c>
       <c r="I23" s="23" cm="1">
         <f t="array" ref="I23">-SUMPRODUCT((D1:H1-C1:G1)*(C23:G23+D23:H23)/2)</f>
-        <v>0</v>
+        <v>77.949084550904402</v>
       </c>
       <c r="J23" s="24" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-      <c r="K23" s="75"/>
+        <v xml:space="preserve">    91.4027918349928, 91.8408348399784, 90.5874589457233, 85.4021372733905, 77.7050724198883, 52.0104153150114,</v>
+      </c>
+      <c r="K23" s="82"/>
       <c r="L23" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="36"/>
+      <c r="M23" s="181">
+        <v>4.0408661273257893</v>
+      </c>
+      <c r="N23" s="101">
+        <v>4.0409012825192869</v>
+      </c>
+      <c r="O23" s="101">
+        <v>4.1940164386666767</v>
+      </c>
+      <c r="P23" s="101">
+        <v>4.510756604304313</v>
+      </c>
+      <c r="Q23" s="101">
+        <v>5.0196404058630639</v>
+      </c>
+      <c r="R23" s="182">
+        <v>5.37991625378893</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
+      <c r="C24" s="121">
+        <v>92.773850408163852</v>
+      </c>
+      <c r="D24" s="122">
+        <v>92.629336470615399</v>
+      </c>
+      <c r="E24" s="122">
+        <v>91.473034657162529</v>
+      </c>
+      <c r="F24" s="122">
+        <v>87.211711750678361</v>
+      </c>
+      <c r="G24" s="122">
+        <v>79.905771964578705</v>
+      </c>
+      <c r="H24" s="123">
+        <v>53.194897879739443</v>
+      </c>
       <c r="I24" s="23" cm="1">
         <f t="array" ref="I24">-SUMPRODUCT((D1:H1-C1:G1)*(C24:G24+D24:H24)/2)</f>
-        <v>0</v>
+        <v>79.067577069582498</v>
       </c>
       <c r="J24" s="24" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-      <c r="K24" s="76"/>
+        <v xml:space="preserve">    92.7738504081639, 92.6293364706154, 91.4730346571625, 87.2117117506784, 79.9057719645787, 53.1948978797394,</v>
+      </c>
+      <c r="K24" s="83"/>
       <c r="L24" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="33"/>
+      <c r="M24" s="183">
+        <v>3.4845529498847951</v>
+      </c>
+      <c r="N24" s="184">
+        <v>3.774175230743952</v>
+      </c>
+      <c r="O24" s="184">
+        <v>3.691284203812105</v>
+      </c>
+      <c r="P24" s="184">
+        <v>4.1656707984809298</v>
+      </c>
+      <c r="Q24" s="184">
+        <v>5.2619938522170244</v>
+      </c>
+      <c r="R24" s="185">
+        <v>5.365025092594494</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2019,10 +4994,10 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="78"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="5">
         <v>92.866950218042462</v>
       </c>
@@ -2043,10 +5018,10 @@
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="77" t="s">
+      <c r="K27" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="L27" s="78"/>
+      <c r="L27" s="85"/>
       <c r="M27" s="5">
         <v>3.8319643020864191</v>
       </c>
@@ -2067,10 +5042,10 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="68"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="8">
         <v>90.52770446578225</v>
       </c>
@@ -2091,10 +5066,10 @@
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="67" t="s">
+      <c r="K28" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="L28" s="68"/>
+      <c r="L28" s="80"/>
       <c r="M28" s="5">
         <v>4.0901656450530481</v>
       </c>
@@ -2115,10 +5090,10 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="68"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="5">
         <v>89.97817765654861</v>
       </c>
@@ -2139,10 +5114,10 @@
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="67" t="s">
+      <c r="K29" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="68"/>
+      <c r="L29" s="80"/>
       <c r="M29" s="5">
         <v>3.9649646983544202</v>
       </c>
@@ -2287,31 +5262,31 @@
       <c r="R32" s="14"/>
     </row>
     <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="81"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="75"/>
       <c r="I33" s="3"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="79" t="s">
+      <c r="K33" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="81"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="75"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="76" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="58" t="s">
@@ -2337,7 +5312,7 @@
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="82" t="s">
+      <c r="K34" s="76" t="s">
         <v>0</v>
       </c>
       <c r="L34" s="58" t="s">
@@ -2363,7 +5338,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="83"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="61" t="s">
         <v>2</v>
       </c>
@@ -2387,7 +5362,7 @@
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="83"/>
+      <c r="K35" s="77"/>
       <c r="L35" s="61" t="s">
         <v>2</v>
       </c>
@@ -2411,7 +5386,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="83"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="61" t="s">
         <v>3</v>
       </c>
@@ -2435,7 +5410,7 @@
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="83"/>
+      <c r="K36" s="77"/>
       <c r="L36" s="61" t="s">
         <v>3</v>
       </c>
@@ -2459,7 +5434,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="83"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="61" t="s">
         <v>4</v>
       </c>
@@ -2483,7 +5458,7 @@
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="83"/>
+      <c r="K37" s="77"/>
       <c r="L37" s="61" t="s">
         <v>4</v>
       </c>
@@ -2507,7 +5482,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="83"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="61" t="s">
         <v>5</v>
       </c>
@@ -2531,7 +5506,7 @@
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="83"/>
+      <c r="K38" s="77"/>
       <c r="L38" s="61" t="s">
         <v>5</v>
       </c>
@@ -2555,7 +5530,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="83"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="61" t="s">
         <v>6</v>
       </c>
@@ -2579,7 +5554,7 @@
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="83"/>
+      <c r="K39" s="77"/>
       <c r="L39" s="61" t="s">
         <v>6</v>
       </c>
@@ -2603,7 +5578,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
+      <c r="A40" s="78"/>
       <c r="B40" s="56" t="s">
         <v>7</v>
       </c>
@@ -2627,7 +5602,7 @@
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="84"/>
+      <c r="K40" s="78"/>
       <c r="L40" s="56" t="s">
         <v>7</v>
       </c>
@@ -2671,217 +5646,371 @@
       <c r="R41" s="17"/>
     </row>
     <row r="42" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="79" t="s">
+      <c r="A42" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="81"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+      <c r="H42" s="75"/>
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="79" t="s">
+      <c r="K42" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
-      <c r="P42" s="80"/>
-      <c r="Q42" s="80"/>
-      <c r="R42" s="81"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="75"/>
     </row>
     <row r="43" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="76" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="10"/>
+      <c r="C43" s="186">
+        <v>90.29967741503981</v>
+      </c>
+      <c r="D43" s="187">
+        <v>89.510868992295826</v>
+      </c>
+      <c r="E43" s="187">
+        <v>87.258913585622395</v>
+      </c>
+      <c r="F43" s="187">
+        <v>83.760867755066087</v>
+      </c>
+      <c r="G43" s="187">
+        <v>80.287125530379271</v>
+      </c>
+      <c r="H43" s="188">
+        <v>61.188924571325323</v>
+      </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="82" t="s">
+      <c r="K43" s="76" t="s">
         <v>0</v>
       </c>
       <c r="L43" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="M43" s="8"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="10"/>
+      <c r="M43" s="186">
+        <v>4.4782931220761197</v>
+      </c>
+      <c r="N43" s="187">
+        <v>4.5222377750316758</v>
+      </c>
+      <c r="O43" s="187">
+        <v>4.6029455655413125</v>
+      </c>
+      <c r="P43" s="187">
+        <v>6.257354803797381</v>
+      </c>
+      <c r="Q43" s="187">
+        <v>6.9219449214645952</v>
+      </c>
+      <c r="R43" s="188">
+        <v>9.4412417292248971</v>
+      </c>
     </row>
     <row r="44" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="83"/>
+      <c r="A44" s="77"/>
       <c r="B44" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="17"/>
+      <c r="C44" s="189">
+        <v>90.931243260036453</v>
+      </c>
+      <c r="D44" s="110">
+        <v>91.082357714265669</v>
+      </c>
+      <c r="E44" s="110">
+        <v>88.655711907744944</v>
+      </c>
+      <c r="F44" s="110">
+        <v>81.214805002907326</v>
+      </c>
+      <c r="G44" s="110">
+        <v>75.661714061962343</v>
+      </c>
+      <c r="H44" s="190">
+        <v>52.244835902663532</v>
+      </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="83"/>
+      <c r="K44" s="77"/>
       <c r="L44" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="M44" s="16"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="17"/>
+      <c r="M44" s="189">
+        <v>4.5057436776580992</v>
+      </c>
+      <c r="N44" s="110">
+        <v>4.0550522183539899</v>
+      </c>
+      <c r="O44" s="110">
+        <v>5.1915264166385819</v>
+      </c>
+      <c r="P44" s="110">
+        <v>6.295747790034012</v>
+      </c>
+      <c r="Q44" s="110">
+        <v>6.9586260314854194</v>
+      </c>
+      <c r="R44" s="190">
+        <v>6.6746674701315607</v>
+      </c>
     </row>
     <row r="45" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="83"/>
+      <c r="A45" s="77"/>
       <c r="B45" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="17"/>
+      <c r="C45" s="189">
+        <v>91.32447121035851</v>
+      </c>
+      <c r="D45" s="110">
+        <v>91.3333337561062</v>
+      </c>
+      <c r="E45" s="110">
+        <v>89.986891432474394</v>
+      </c>
+      <c r="F45" s="110">
+        <v>82.970355841172378</v>
+      </c>
+      <c r="G45" s="110">
+        <v>77.728293483681654</v>
+      </c>
+      <c r="H45" s="190">
+        <v>51.252252971490805</v>
+      </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="83"/>
+      <c r="K45" s="77"/>
       <c r="L45" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="16"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="17"/>
+      <c r="M45" s="189">
+        <v>4.5275458491527303</v>
+      </c>
+      <c r="N45" s="110">
+        <v>4.2747573588166334</v>
+      </c>
+      <c r="O45" s="110">
+        <v>4.4686421394859934</v>
+      </c>
+      <c r="P45" s="110">
+        <v>5.5574343091824403</v>
+      </c>
+      <c r="Q45" s="110">
+        <v>6.3901949395400921</v>
+      </c>
+      <c r="R45" s="190">
+        <v>4.9979009615131131</v>
+      </c>
     </row>
     <row r="46" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="83"/>
+      <c r="A46" s="77"/>
       <c r="B46" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="17"/>
+      <c r="C46" s="189">
+        <v>91.872079363951016</v>
+      </c>
+      <c r="D46" s="110">
+        <v>91.684900567356891</v>
+      </c>
+      <c r="E46" s="110">
+        <v>91.380966800670592</v>
+      </c>
+      <c r="F46" s="110">
+        <v>89.858157735134256</v>
+      </c>
+      <c r="G46" s="110">
+        <v>85.956224613701878</v>
+      </c>
+      <c r="H46" s="190">
+        <v>67.001420055173739</v>
+      </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="83"/>
+      <c r="K46" s="77"/>
       <c r="L46" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="M46" s="16"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="17"/>
+      <c r="M46" s="189">
+        <v>3.995248390871974</v>
+      </c>
+      <c r="N46" s="110">
+        <v>3.9773804093196805</v>
+      </c>
+      <c r="O46" s="110">
+        <v>3.947656073981153</v>
+      </c>
+      <c r="P46" s="110">
+        <v>3.7871846273753924</v>
+      </c>
+      <c r="Q46" s="110">
+        <v>4.6030680163158832</v>
+      </c>
+      <c r="R46" s="190">
+        <v>9.7860097008678171</v>
+      </c>
     </row>
     <row r="47" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="83"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="17"/>
+      <c r="C47" s="189">
+        <v>91.422732210087531</v>
+      </c>
+      <c r="D47" s="110">
+        <v>91.628764604827211</v>
+      </c>
+      <c r="E47" s="110">
+        <v>89.843906269406475</v>
+      </c>
+      <c r="F47" s="110">
+        <v>81.866384471789445</v>
+      </c>
+      <c r="G47" s="110">
+        <v>76.308676619695916</v>
+      </c>
+      <c r="H47" s="190">
+        <v>50.964103346303737</v>
+      </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="83"/>
+      <c r="K47" s="77"/>
       <c r="L47" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="M47" s="16"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="17"/>
+      <c r="M47" s="189">
+        <v>3.917177900536299</v>
+      </c>
+      <c r="N47" s="110">
+        <v>4.0890601272961096</v>
+      </c>
+      <c r="O47" s="110">
+        <v>4.3937083258425353</v>
+      </c>
+      <c r="P47" s="110">
+        <v>6.1123504217632805</v>
+      </c>
+      <c r="Q47" s="110">
+        <v>6.7941736801169661</v>
+      </c>
+      <c r="R47" s="190">
+        <v>5.5260013746794829</v>
+      </c>
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="83"/>
+      <c r="A48" s="77"/>
       <c r="B48" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="17"/>
+      <c r="C48" s="189">
+        <v>90.985844496554918</v>
+      </c>
+      <c r="D48" s="110">
+        <v>91.355333965943203</v>
+      </c>
+      <c r="E48" s="110">
+        <v>90.056686676188946</v>
+      </c>
+      <c r="F48" s="110">
+        <v>84.819033215472516</v>
+      </c>
+      <c r="G48" s="110">
+        <v>77.063476400804475</v>
+      </c>
+      <c r="H48" s="190">
+        <v>51.089038185296396</v>
+      </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="83"/>
+      <c r="K48" s="77"/>
       <c r="L48" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="M48" s="16"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="17"/>
+      <c r="M48" s="189">
+        <v>4.3376511535473963</v>
+      </c>
+      <c r="N48" s="110">
+        <v>4.420312980473601</v>
+      </c>
+      <c r="O48" s="110">
+        <v>4.6011804213694694</v>
+      </c>
+      <c r="P48" s="110">
+        <v>4.8992778070368752</v>
+      </c>
+      <c r="Q48" s="110">
+        <v>5.342884708835431</v>
+      </c>
+      <c r="R48" s="190">
+        <v>5.5127562295818278</v>
+      </c>
     </row>
     <row r="49" spans="1:18" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="84"/>
+      <c r="A49" s="78"/>
       <c r="B49" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="20"/>
+      <c r="C49" s="191">
+        <v>92.379552522916796</v>
+      </c>
+      <c r="D49" s="192">
+        <v>92.215437471126776</v>
+      </c>
+      <c r="E49" s="192">
+        <v>91.043663385699574</v>
+      </c>
+      <c r="F49" s="192">
+        <v>86.687476792735367</v>
+      </c>
+      <c r="G49" s="192">
+        <v>79.006329272114002</v>
+      </c>
+      <c r="H49" s="193">
+        <v>52.267000146538933</v>
+      </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="84"/>
+      <c r="K49" s="78"/>
       <c r="L49" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="M49" s="18"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="20"/>
+      <c r="M49" s="191">
+        <v>3.8077987010870333</v>
+      </c>
+      <c r="N49" s="192">
+        <v>4.1308262664839095</v>
+      </c>
+      <c r="O49" s="192">
+        <v>4.0791905598095859</v>
+      </c>
+      <c r="P49" s="192">
+        <v>4.4649557295204971</v>
+      </c>
+      <c r="Q49" s="192">
+        <v>5.6075703811769424</v>
+      </c>
+      <c r="R49" s="193">
+        <v>5.464688035560016</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="K42:R42"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="K43:K49"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="K33:R33"/>
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="K34:K40"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="A4:B4"/>
@@ -2896,6 +6025,20 @@
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="A9:A15"/>
     <mergeCell ref="K9:K15"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="K42:R42"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="K43:K49"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="K33:R33"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="K34:K40"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="K8:R8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
@@ -2923,17 +6066,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3047,6 +6190,86 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:H2">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -3057,99 +6280,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H3 A5:H8 A16:H24 A9:B15">
+    <cfRule type="colorScale" priority="395">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="400">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="395">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3355,47 +6498,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:I3 I2:I24">
+    <cfRule type="colorScale" priority="415">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="416">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="417">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="418">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="419">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="415">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="416">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="417">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="418">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3455,17 +6598,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I15 I8:I10 I5:I6 C5:H7 I17:I20 I22:I24">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3559,17 +6702,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:L6">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3615,17 +6758,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:L31">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3681,6 +6824,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:R17">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -3691,18 +6844,18 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:R33">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -3713,29 +6866,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K42:R42">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3762,7 +6905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9983BE0-D630-4490-8E48-23B7EF3BF73E}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U53"/>
@@ -3843,10 +6986,10 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="85"/>
+      <c r="B2" s="68"/>
       <c r="C2" s="28">
         <v>93.273358766079312</v>
       </c>
@@ -3880,10 +7023,10 @@
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C2:I2)&amp;","</f>
         <v xml:space="preserve">    93.2733587660793, 91.6155877934354, 90.6205330495939, 86.5975138193237, 78.2243502683126, 60.8549929786013, 48.7439337710534,</v>
       </c>
-      <c r="M2" s="69" t="s">
+      <c r="M2" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="85"/>
+      <c r="N2" s="68"/>
       <c r="O2" s="28">
         <v>3.4672469457762647</v>
       </c>
@@ -3907,10 +7050,10 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="25">
         <v>91.183040799084182</v>
       </c>
@@ -3941,10 +7084,10 @@
         <v>224.254143447031</v>
       </c>
       <c r="L3" s="24"/>
-      <c r="M3" s="69" t="s">
+      <c r="M3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="70"/>
+      <c r="N3" s="69"/>
       <c r="O3" s="25">
         <v>3.6304356896667822</v>
       </c>
@@ -3968,10 +7111,10 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="25">
         <v>90.664120508539568</v>
       </c>
@@ -4002,10 +7145,10 @@
         <v>240.56641489834115</v>
       </c>
       <c r="L4" s="24"/>
-      <c r="M4" s="69" t="s">
+      <c r="M4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="70"/>
+      <c r="N4" s="69"/>
       <c r="O4" s="25">
         <v>3.5401754285279829</v>
       </c>
@@ -4029,7 +7172,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="89" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="46" t="s">
@@ -4068,7 +7211,7 @@
         <f>"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C5:I5)&amp;","</f>
         <v xml:space="preserve">    92.8633408016794, 92.1309094369329, 91.4859326926127, 87.9828631735569, 81.2503395358091, 67.4134118807256, 58.0826045208004,</v>
       </c>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="89" t="s">
         <v>8</v>
       </c>
       <c r="N5" s="46" t="s">
@@ -4097,7 +7240,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
+      <c r="A6" s="90"/>
       <c r="B6" s="47" t="s">
         <v>14</v>
       </c>
@@ -4131,7 +7274,7 @@
         <v>231.31219519632526</v>
       </c>
       <c r="L6" s="24"/>
-      <c r="M6" s="93"/>
+      <c r="M6" s="90"/>
       <c r="N6" s="43" t="s">
         <v>14</v>
       </c>
@@ -4158,7 +7301,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="89" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="49" t="s">
@@ -4194,7 +7337,7 @@
         <v>252.47072573436336</v>
       </c>
       <c r="L7" s="24"/>
-      <c r="M7" s="92" t="s">
+      <c r="M7" s="89" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="49" t="s">
@@ -4223,7 +7366,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="43" t="s">
         <v>14</v>
       </c>
@@ -4257,7 +7400,7 @@
         <v>234.59362269569806</v>
       </c>
       <c r="L8" s="24"/>
-      <c r="M8" s="93"/>
+      <c r="M8" s="90"/>
       <c r="N8" s="43" t="s">
         <v>14</v>
       </c>
@@ -4334,7 +7477,7 @@
       <c r="U10" s="88"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="46" t="s">
@@ -4370,7 +7513,7 @@
         <f t="shared" ref="L11:L17" si="3">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C11:I11)&amp;","</f>
         <v xml:space="preserve">    93.3176065536899, 92.8200935994256, 92.1415986874166, 90.8230203836827, 85.5312502703311, 65.1962185370692, 51.8558176685496,</v>
       </c>
-      <c r="M11" s="74" t="s">
+      <c r="M11" s="81" t="s">
         <v>0</v>
       </c>
       <c r="N11" s="46" t="s">
@@ -4399,7 +7542,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="52" t="s">
         <v>2</v>
       </c>
@@ -4433,26 +7576,26 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    93.4631268436578, 92.1750591844797, 91.6539820125318, 89.1640700467421, 84.6513897179041, 64.4617196803894, 47.5477930893289,</v>
       </c>
-      <c r="M12" s="75"/>
+      <c r="M12" s="82"/>
       <c r="N12" s="52" t="s">
         <v>2</v>
       </c>
       <c r="O12" s="35">
         <v>3.4757775499648642</v>
       </c>
-      <c r="P12" s="97">
+      <c r="P12" s="24">
         <v>3.9625853214368441</v>
       </c>
-      <c r="Q12" s="97">
+      <c r="Q12" s="24">
         <v>3.885694779483682</v>
       </c>
-      <c r="R12" s="97">
+      <c r="R12" s="24">
         <v>4.0754338376519801</v>
       </c>
-      <c r="S12" s="97">
+      <c r="S12" s="24">
         <v>4.4754549782690392</v>
       </c>
-      <c r="T12" s="97">
+      <c r="T12" s="24">
         <v>7.534222167299129</v>
       </c>
       <c r="U12" s="36">
@@ -4460,7 +7603,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="75"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="52" t="s">
         <v>3</v>
       </c>
@@ -4494,26 +7637,26 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    93.3470993117011, 92.3844929454407, 91.818173167588, 89.6642012474156, 85.9374014192741, 66.9514211483952, 49.5556881979948,</v>
       </c>
-      <c r="M13" s="75"/>
+      <c r="M13" s="82"/>
       <c r="N13" s="52" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="35">
         <v>3.617035107453527</v>
       </c>
-      <c r="P13" s="97">
+      <c r="P13" s="24">
         <v>3.8495808870120838</v>
       </c>
-      <c r="Q13" s="97">
+      <c r="Q13" s="24">
         <v>3.96739410444094</v>
       </c>
-      <c r="R13" s="97">
+      <c r="R13" s="24">
         <v>4.2778681212111698</v>
       </c>
-      <c r="S13" s="97">
+      <c r="S13" s="24">
         <v>5.3469667369193479</v>
       </c>
-      <c r="T13" s="97">
+      <c r="T13" s="24">
         <v>6.7029521369038161</v>
       </c>
       <c r="U13" s="36">
@@ -4521,7 +7664,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="75"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="52" t="s">
         <v>4</v>
       </c>
@@ -4555,26 +7698,26 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    93.093423530192, 92.0325291164572, 91.460223127651, 89.4357448305493, 82.9893770707359, 58.1988973376356, 50.0007958546354,</v>
       </c>
-      <c r="M14" s="75"/>
+      <c r="M14" s="82"/>
       <c r="N14" s="52" t="s">
         <v>4</v>
       </c>
       <c r="O14" s="35">
         <v>3.7255345666418358</v>
       </c>
-      <c r="P14" s="97">
+      <c r="P14" s="24">
         <v>4.014745502640432</v>
       </c>
-      <c r="Q14" s="97">
+      <c r="Q14" s="24">
         <v>4.0186014047538423</v>
       </c>
-      <c r="R14" s="97">
+      <c r="R14" s="24">
         <v>4.2976843001776297</v>
       </c>
-      <c r="S14" s="97">
+      <c r="S14" s="24">
         <v>5.4463720180523856</v>
       </c>
-      <c r="T14" s="97">
+      <c r="T14" s="24">
         <v>8.0197439606429093</v>
       </c>
       <c r="U14" s="36">
@@ -4582,7 +7725,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="75"/>
+      <c r="A15" s="82"/>
       <c r="B15" s="52" t="s">
         <v>5</v>
       </c>
@@ -4616,26 +7759,26 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    93.4198623402163, 92.7345363425866, 92.2713979648036, 90.7149456310175, 87.9989042581106, 66.19684714689, 50.5718388567375,</v>
       </c>
-      <c r="M15" s="75"/>
+      <c r="M15" s="82"/>
       <c r="N15" s="52" t="s">
         <v>5</v>
       </c>
       <c r="O15" s="35">
         <v>3.5802828134576741</v>
       </c>
-      <c r="P15" s="97">
+      <c r="P15" s="24">
         <v>4.0559403662333304</v>
       </c>
-      <c r="Q15" s="97">
+      <c r="Q15" s="24">
         <v>4.0480488735099982</v>
       </c>
-      <c r="R15" s="97">
+      <c r="R15" s="24">
         <v>3.9309187760649582</v>
       </c>
-      <c r="S15" s="97">
+      <c r="S15" s="24">
         <v>4.5469182893231572</v>
       </c>
-      <c r="T15" s="97">
+      <c r="T15" s="24">
         <v>8.4486501587333311</v>
       </c>
       <c r="U15" s="36">
@@ -4643,7 +7786,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="75"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="52" t="s">
         <v>6</v>
       </c>
@@ -4680,26 +7823,26 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    93.4237954768928, 92.4366070064043, 92.0698362442582, 89.2861097414337, 85.1082708327927, 62.343982214379, 48.8028789176377,</v>
       </c>
-      <c r="M16" s="75"/>
+      <c r="M16" s="82"/>
       <c r="N16" s="52" t="s">
         <v>6</v>
       </c>
       <c r="O16" s="35">
         <v>3.2978061069729612</v>
       </c>
-      <c r="P16" s="97">
+      <c r="P16" s="24">
         <v>3.839215727245314</v>
       </c>
-      <c r="Q16" s="97">
+      <c r="Q16" s="24">
         <v>3.8733063090154749</v>
       </c>
-      <c r="R16" s="97">
+      <c r="R16" s="24">
         <v>4.7219853917428987</v>
       </c>
-      <c r="S16" s="97">
+      <c r="S16" s="24">
         <v>4.6095110377486659</v>
       </c>
-      <c r="T16" s="97">
+      <c r="T16" s="24">
         <v>7.4833403587430967</v>
       </c>
       <c r="U16" s="36">
@@ -4707,7 +7850,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="53" t="s">
         <v>7</v>
       </c>
@@ -4741,7 +7884,7 @@
         <f t="shared" si="3"/>
         <v xml:space="preserve">    93.4965585054081, 92.7138816079724, 92.345144277488, 91.0076442414439, 87.3342474127516, 66.0653004495425, 52.2439496304755,</v>
       </c>
-      <c r="M17" s="76"/>
+      <c r="M17" s="83"/>
       <c r="N17" s="53" t="s">
         <v>7</v>
       </c>
@@ -4818,242 +7961,438 @@
       <c r="U19" s="88"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="81" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
+      <c r="C20" s="97">
+        <v>90.805338569826162</v>
+      </c>
+      <c r="D20" s="98">
+        <v>89.893932185111169</v>
+      </c>
+      <c r="E20" s="98">
+        <v>87.702595466512108</v>
+      </c>
+      <c r="F20" s="98">
+        <v>84.326807902029159</v>
+      </c>
+      <c r="G20" s="98">
+        <v>80.856293451212096</v>
+      </c>
+      <c r="H20" s="98">
+        <v>62.103475520261128</v>
+      </c>
+      <c r="I20" s="99">
+        <v>51.455543156371007</v>
+      </c>
       <c r="J20" s="23"/>
       <c r="K20" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>217.35462617900384</v>
       </c>
       <c r="L20" s="24" t="str">
         <f t="shared" ref="L20:L26" si="4">"    "&amp;_xlfn.TEXTJOIN(", ",TRUE,C20:I20)&amp;","</f>
-        <v xml:space="preserve">    ,</v>
-      </c>
-      <c r="M20" s="74" t="s">
+        <v xml:space="preserve">    90.8053385698262, 89.8939321851112, 87.7025954665121, 84.3268079020292, 80.8562934512121, 62.1034755202611, 51.455543156371,</v>
+      </c>
+      <c r="M20" s="81" t="s">
         <v>0</v>
       </c>
       <c r="N20" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="30"/>
+      <c r="O20" s="97">
+        <v>4.2224462224326453</v>
+      </c>
+      <c r="P20" s="98">
+        <v>4.3262075480804407</v>
+      </c>
+      <c r="Q20" s="98">
+        <v>4.3655747248591146</v>
+      </c>
+      <c r="R20" s="98">
+        <v>5.9827325798621898</v>
+      </c>
+      <c r="S20" s="98">
+        <v>6.7169158033743877</v>
+      </c>
+      <c r="T20" s="98">
+        <v>9.2164503829621349</v>
+      </c>
+      <c r="U20" s="99">
+        <v>10.982075060370891</v>
+      </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="75"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="36"/>
+      <c r="C21" s="100">
+        <v>91.49957756266636</v>
+      </c>
+      <c r="D21" s="101">
+        <v>91.573289272975259</v>
+      </c>
+      <c r="E21" s="101">
+        <v>89.197550728524192</v>
+      </c>
+      <c r="F21" s="101">
+        <v>81.999449245524048</v>
+      </c>
+      <c r="G21" s="101">
+        <v>76.523637747731371</v>
+      </c>
+      <c r="H21" s="101">
+        <v>53.110623794323473</v>
+      </c>
+      <c r="I21" s="102">
+        <v>46.15741485652989</v>
+      </c>
       <c r="J21" s="23"/>
       <c r="K21" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>201.85424873196712</v>
       </c>
       <c r="L21" s="24" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-      <c r="M21" s="75"/>
+        <v xml:space="preserve">    91.4995775626664, 91.5732892729753, 89.1975507285242, 81.999449245524, 76.5236377477314, 53.1106237943235, 46.1574148565299,</v>
+      </c>
+      <c r="M21" s="82"/>
       <c r="N21" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="36"/>
+      <c r="O21" s="100">
+        <v>4.0298664583527373</v>
+      </c>
+      <c r="P21" s="101">
+        <v>3.7536582545684931</v>
+      </c>
+      <c r="Q21" s="101">
+        <v>4.779079559693427</v>
+      </c>
+      <c r="R21" s="101">
+        <v>5.8099787798580724</v>
+      </c>
+      <c r="S21" s="101">
+        <v>6.5930521237231261</v>
+      </c>
+      <c r="T21" s="101">
+        <v>6.3444388569949144</v>
+      </c>
+      <c r="U21" s="102">
+        <v>8.7949194226258527</v>
+      </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="75"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="36"/>
+      <c r="C22" s="100">
+        <v>91.785730557069428</v>
+      </c>
+      <c r="D22" s="101">
+        <v>91.804389888032503</v>
+      </c>
+      <c r="E22" s="101">
+        <v>90.516287626478899</v>
+      </c>
+      <c r="F22" s="101">
+        <v>83.734666101494568</v>
+      </c>
+      <c r="G22" s="101">
+        <v>78.459603168424181</v>
+      </c>
+      <c r="H22" s="101">
+        <v>52.256250774949038</v>
+      </c>
+      <c r="I22" s="102">
+        <v>42.410874373192392</v>
+      </c>
       <c r="J22" s="23"/>
       <c r="K22" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>200.21435594166041</v>
       </c>
       <c r="L22" s="24" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-      <c r="M22" s="75"/>
+        <v xml:space="preserve">    91.7857305570694, 91.8043898880325, 90.5162876264789, 83.7346661014946, 78.4596031684242, 52.256250774949, 42.4108743731924,</v>
+      </c>
+      <c r="M22" s="82"/>
       <c r="N22" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="36"/>
+      <c r="O22" s="100">
+        <v>4.136996790032649</v>
+      </c>
+      <c r="P22" s="101">
+        <v>3.8377000659019229</v>
+      </c>
+      <c r="Q22" s="101">
+        <v>4.0970153086962888</v>
+      </c>
+      <c r="R22" s="101">
+        <v>5.1754411789167163</v>
+      </c>
+      <c r="S22" s="101">
+        <v>6.0141034610368287</v>
+      </c>
+      <c r="T22" s="101">
+        <v>4.8329152396440529</v>
+      </c>
+      <c r="U22" s="102">
+        <v>4.0794305665973436</v>
+      </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="75"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="36"/>
+      <c r="C23" s="100">
+        <v>92.353988067947554</v>
+      </c>
+      <c r="D23" s="101">
+        <v>92.133726647000984</v>
+      </c>
+      <c r="E23" s="101">
+        <v>91.765000850641769</v>
+      </c>
+      <c r="F23" s="101">
+        <v>90.137034057388036</v>
+      </c>
+      <c r="G23" s="101">
+        <v>86.241815817322518</v>
+      </c>
+      <c r="H23" s="101">
+        <v>67.609800546140818</v>
+      </c>
+      <c r="I23" s="102">
+        <v>54.045571328471709</v>
+      </c>
       <c r="J23" s="23"/>
       <c r="K23" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>231.60158350562435</v>
       </c>
       <c r="L23" s="24" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-      <c r="M23" s="75"/>
+        <v xml:space="preserve">    92.3539880679476, 92.133726647001, 91.7650008506418, 90.137034057388, 86.2418158173225, 67.6098005461408, 54.0455713284717,</v>
+      </c>
+      <c r="M23" s="82"/>
       <c r="N23" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="36"/>
+      <c r="O23" s="100">
+        <v>3.603874809326058</v>
+      </c>
+      <c r="P23" s="101">
+        <v>3.6313977016654562</v>
+      </c>
+      <c r="Q23" s="101">
+        <v>3.749014572335764</v>
+      </c>
+      <c r="R23" s="101">
+        <v>3.6809224083418872</v>
+      </c>
+      <c r="S23" s="101">
+        <v>4.5442508858284896</v>
+      </c>
+      <c r="T23" s="101">
+        <v>9.5707635580771555</v>
+      </c>
+      <c r="U23" s="102">
+        <v>12.733491534452479</v>
+      </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="75"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="36"/>
+      <c r="C24" s="100">
+        <v>91.800439450168241</v>
+      </c>
+      <c r="D24" s="101">
+        <v>91.982404692082113</v>
+      </c>
+      <c r="E24" s="101">
+        <v>90.375764496232676</v>
+      </c>
+      <c r="F24" s="101">
+        <v>82.608477005279738</v>
+      </c>
+      <c r="G24" s="101">
+        <v>76.941265351199704</v>
+      </c>
+      <c r="H24" s="101">
+        <v>51.845635919572558</v>
+      </c>
+      <c r="I24" s="102">
+        <v>45.066673010435487</v>
+      </c>
       <c r="J24" s="23"/>
       <c r="K24" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>200.73104246143998</v>
       </c>
       <c r="L24" s="24" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-      <c r="M24" s="75"/>
+        <v xml:space="preserve">    91.8004394501682, 91.9824046920821, 90.3757644962327, 82.6084770052797, 76.9412653511997, 51.8456359195726, 45.0666730104355,</v>
+      </c>
+      <c r="M24" s="82"/>
       <c r="N24" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="36"/>
+      <c r="O24" s="100">
+        <v>3.6349640878186351</v>
+      </c>
+      <c r="P24" s="101">
+        <v>3.7961233398255212</v>
+      </c>
+      <c r="Q24" s="101">
+        <v>3.9494198597156931</v>
+      </c>
+      <c r="R24" s="101">
+        <v>5.7389509725526704</v>
+      </c>
+      <c r="S24" s="101">
+        <v>6.6269044703598876</v>
+      </c>
+      <c r="T24" s="101">
+        <v>5.3004339461274297</v>
+      </c>
+      <c r="U24" s="102">
+        <v>7.4695373800812046</v>
+      </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="75"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="36"/>
+      <c r="C25" s="100">
+        <v>91.402791834992783</v>
+      </c>
+      <c r="D25" s="101">
+        <v>91.840834839978427</v>
+      </c>
+      <c r="E25" s="101">
+        <v>90.587458945723284</v>
+      </c>
+      <c r="F25" s="101">
+        <v>85.402137273390494</v>
+      </c>
+      <c r="G25" s="101">
+        <v>77.705072419888282</v>
+      </c>
+      <c r="H25" s="101">
+        <v>52.010415315011372</v>
+      </c>
+      <c r="I25" s="102">
+        <v>42.510970394784273</v>
+      </c>
       <c r="J25" s="23" cm="1">
         <f t="array" ref="J25">-SUMPRODUCT((D1:I1-C1:H1)*(C25:H25+D25:I25)/2)</f>
-        <v>0</v>
+        <v>80.312119193649295</v>
       </c>
       <c r="K25" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>200.45979771307134</v>
       </c>
       <c r="L25" s="24" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-      <c r="M25" s="75"/>
+        <v xml:space="preserve">    91.4027918349928, 91.8408348399784, 90.5874589457233, 85.4021372733905, 77.7050724198883, 52.0104153150114, 42.5109703947843,</v>
+      </c>
+      <c r="M25" s="82"/>
       <c r="N25" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="36"/>
+      <c r="O25" s="100">
+        <v>4.0408661273257893</v>
+      </c>
+      <c r="P25" s="101">
+        <v>4.0409012825192869</v>
+      </c>
+      <c r="Q25" s="101">
+        <v>4.1940164386666767</v>
+      </c>
+      <c r="R25" s="101">
+        <v>4.510756604304313</v>
+      </c>
+      <c r="S25" s="101">
+        <v>5.0196404058630639</v>
+      </c>
+      <c r="T25" s="101">
+        <v>5.37991625378893</v>
+      </c>
+      <c r="U25" s="102">
+        <v>3.6299354621712059</v>
+      </c>
     </row>
     <row r="26" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
+      <c r="C26" s="103">
+        <v>92.773850408163852</v>
+      </c>
+      <c r="D26" s="104">
+        <v>92.629336470615399</v>
+      </c>
+      <c r="E26" s="104">
+        <v>91.473034657162529</v>
+      </c>
+      <c r="F26" s="104">
+        <v>87.211711750678361</v>
+      </c>
+      <c r="G26" s="104">
+        <v>79.905771964578705</v>
+      </c>
+      <c r="H26" s="104">
+        <v>53.194897879739443</v>
+      </c>
+      <c r="I26" s="105">
+        <v>40.810612548551447</v>
+      </c>
       <c r="J26" s="23"/>
       <c r="K26" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>202.45047011652349</v>
       </c>
       <c r="L26" s="24" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">    ,</v>
-      </c>
-      <c r="M26" s="76"/>
+        <v xml:space="preserve">    92.7738504081639, 92.6293364706154, 91.4730346571625, 87.2117117506784, 79.9057719645787, 53.1948978797394, 40.8106125485514,</v>
+      </c>
+      <c r="M26" s="83"/>
       <c r="N26" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="33"/>
+      <c r="O26" s="103">
+        <v>3.4845529498847951</v>
+      </c>
+      <c r="P26" s="104">
+        <v>3.774175230743952</v>
+      </c>
+      <c r="Q26" s="104">
+        <v>3.691284203812105</v>
+      </c>
+      <c r="R26" s="104">
+        <v>4.1656707984809298</v>
+      </c>
+      <c r="S26" s="104">
+        <v>5.2619938522170244</v>
+      </c>
+      <c r="T26" s="104">
+        <v>5.365025092594494</v>
+      </c>
+      <c r="U26" s="105">
+        <v>3.0126096209117259</v>
+      </c>
     </row>
     <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="K27" s="1"/>
@@ -5118,10 +8457,10 @@
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="78"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="9">
         <v>92.866950218042462</v>
       </c>
@@ -5146,10 +8485,10 @@
       <c r="J29" s="4"/>
       <c r="K29" s="3"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="77" t="s">
+      <c r="M29" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="N29" s="78"/>
+      <c r="N29" s="85"/>
       <c r="O29" s="9">
         <v>3.8319643020864191</v>
       </c>
@@ -5173,10 +8512,10 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="68"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="5">
         <v>90.52770446578225</v>
       </c>
@@ -5201,10 +8540,10 @@
       <c r="J30" s="4"/>
       <c r="K30" s="3"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="67" t="s">
+      <c r="M30" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="N30" s="68"/>
+      <c r="N30" s="80"/>
       <c r="O30" s="5">
         <v>4.0901656450530481</v>
       </c>
@@ -5228,10 +8567,10 @@
       </c>
     </row>
     <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="68"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="5">
         <v>89.97817765654861</v>
       </c>
@@ -5256,10 +8595,10 @@
       <c r="J31" s="4"/>
       <c r="K31" s="3"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="67" t="s">
+      <c r="M31" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="N31" s="68"/>
+      <c r="N31" s="80"/>
       <c r="O31" s="5">
         <v>3.9649646983544202</v>
       </c>
@@ -5283,7 +8622,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="95" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="58" t="s">
@@ -5313,7 +8652,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="3"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="90" t="s">
+      <c r="M32" s="95" t="s">
         <v>8</v>
       </c>
       <c r="N32" s="58" t="s">
@@ -5342,7 +8681,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="91"/>
+      <c r="A33" s="96"/>
       <c r="B33" s="54" t="s">
         <v>14</v>
       </c>
@@ -5370,7 +8709,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="3"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="91"/>
+      <c r="M33" s="96"/>
       <c r="N33" s="54" t="s">
         <v>14</v>
       </c>
@@ -5397,7 +8736,7 @@
       </c>
     </row>
     <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="90" t="s">
+      <c r="A34" s="95" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="59" t="s">
@@ -5427,7 +8766,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="3"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="90" t="s">
+      <c r="M34" s="95" t="s">
         <v>21</v>
       </c>
       <c r="N34" s="59" t="s">
@@ -5456,7 +8795,7 @@
       </c>
     </row>
     <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="91"/>
+      <c r="A35" s="96"/>
       <c r="B35" s="54" t="s">
         <v>14</v>
       </c>
@@ -5484,7 +8823,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="3"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="91"/>
+      <c r="M35" s="96"/>
       <c r="N35" s="54" t="s">
         <v>14</v>
       </c>
@@ -5534,34 +8873,34 @@
       <c r="U36" s="14"/>
     </row>
     <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="96"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="93"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="94" t="s">
+      <c r="M37" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="T37" s="95"/>
-      <c r="U37" s="96"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="92"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="92"/>
+      <c r="U37" s="93"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="76" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="58" t="s">
@@ -5591,7 +8930,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="3"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="82" t="s">
+      <c r="M38" s="76" t="s">
         <v>0</v>
       </c>
       <c r="N38" s="58" t="s">
@@ -5620,7 +8959,7 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="83"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="61" t="s">
         <v>2</v>
       </c>
@@ -5648,7 +8987,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="3"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="83"/>
+      <c r="M39" s="77"/>
       <c r="N39" s="61" t="s">
         <v>2</v>
       </c>
@@ -5675,7 +9014,7 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" s="83"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="61" t="s">
         <v>3</v>
       </c>
@@ -5703,7 +9042,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="3"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="83"/>
+      <c r="M40" s="77"/>
       <c r="N40" s="61" t="s">
         <v>3</v>
       </c>
@@ -5730,7 +9069,7 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" s="83"/>
+      <c r="A41" s="77"/>
       <c r="B41" s="61" t="s">
         <v>4</v>
       </c>
@@ -5758,7 +9097,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="3"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="83"/>
+      <c r="M41" s="77"/>
       <c r="N41" s="61" t="s">
         <v>4</v>
       </c>
@@ -5785,7 +9124,7 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="83"/>
+      <c r="A42" s="77"/>
       <c r="B42" s="61" t="s">
         <v>5</v>
       </c>
@@ -5813,7 +9152,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="3"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="83"/>
+      <c r="M42" s="77"/>
       <c r="N42" s="61" t="s">
         <v>5</v>
       </c>
@@ -5840,7 +9179,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="83"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="61" t="s">
         <v>6</v>
       </c>
@@ -5868,7 +9207,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="3"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="83"/>
+      <c r="M43" s="77"/>
       <c r="N43" s="61" t="s">
         <v>6</v>
       </c>
@@ -5895,7 +9234,7 @@
       </c>
     </row>
     <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
+      <c r="A44" s="78"/>
       <c r="B44" s="56" t="s">
         <v>7</v>
       </c>
@@ -5923,7 +9262,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="3"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="84"/>
+      <c r="M44" s="78"/>
       <c r="N44" s="56" t="s">
         <v>7</v>
       </c>
@@ -5973,227 +9312,448 @@
       <c r="U45" s="4"/>
     </row>
     <row r="46" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="67" t="s">
+      <c r="A46" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="89"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="94"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="67" t="s">
+      <c r="M46" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="N46" s="68"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="68"/>
-      <c r="Q46" s="68"/>
-      <c r="R46" s="68"/>
-      <c r="S46" s="68"/>
-      <c r="T46" s="68"/>
-      <c r="U46" s="89"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="80"/>
+      <c r="Q46" s="80"/>
+      <c r="R46" s="80"/>
+      <c r="S46" s="80"/>
+      <c r="T46" s="80"/>
+      <c r="U46" s="94"/>
     </row>
     <row r="47" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="82" t="s">
+      <c r="A47" s="76" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="10"/>
+      <c r="C47" s="106">
+        <v>90.29967741503981</v>
+      </c>
+      <c r="D47" s="107">
+        <v>89.510868992295826</v>
+      </c>
+      <c r="E47" s="107">
+        <v>87.258913585622395</v>
+      </c>
+      <c r="F47" s="107">
+        <v>83.760867755066087</v>
+      </c>
+      <c r="G47" s="107">
+        <v>80.287125530379271</v>
+      </c>
+      <c r="H47" s="107">
+        <v>61.188924571325323</v>
+      </c>
+      <c r="I47" s="108">
+        <v>49.628341359319492</v>
+      </c>
       <c r="J47" s="4"/>
       <c r="K47" s="3"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="82" t="s">
+      <c r="M47" s="76" t="s">
         <v>0</v>
       </c>
       <c r="N47" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="O47" s="8"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="10"/>
+      <c r="O47" s="106">
+        <v>4.4782931220761197</v>
+      </c>
+      <c r="P47" s="107">
+        <v>4.5222377750316758</v>
+      </c>
+      <c r="Q47" s="107">
+        <v>4.6029455655413125</v>
+      </c>
+      <c r="R47" s="107">
+        <v>6.257354803797381</v>
+      </c>
+      <c r="S47" s="107">
+        <v>6.9219449214645952</v>
+      </c>
+      <c r="T47" s="107">
+        <v>9.4412417292248971</v>
+      </c>
+      <c r="U47" s="108">
+        <v>11.60872291671811</v>
+      </c>
     </row>
     <row r="48" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="83"/>
+      <c r="A48" s="77"/>
       <c r="B48" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="17"/>
+      <c r="C48" s="109">
+        <v>90.931243260036453</v>
+      </c>
+      <c r="D48" s="110">
+        <v>91.082357714265669</v>
+      </c>
+      <c r="E48" s="110">
+        <v>88.655711907744944</v>
+      </c>
+      <c r="F48" s="110">
+        <v>81.214805002907326</v>
+      </c>
+      <c r="G48" s="110">
+        <v>75.661714061962343</v>
+      </c>
+      <c r="H48" s="110">
+        <v>52.244835902663532</v>
+      </c>
+      <c r="I48" s="111">
+        <v>44.129521704136806</v>
+      </c>
       <c r="J48" s="4"/>
       <c r="K48" s="3"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="83"/>
+      <c r="M48" s="77"/>
       <c r="N48" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="O48" s="16"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="17"/>
+      <c r="O48" s="109">
+        <v>4.5057436776580992</v>
+      </c>
+      <c r="P48" s="110">
+        <v>4.0550522183539899</v>
+      </c>
+      <c r="Q48" s="110">
+        <v>5.1915264166385819</v>
+      </c>
+      <c r="R48" s="110">
+        <v>6.295747790034012</v>
+      </c>
+      <c r="S48" s="110">
+        <v>6.9586260314854194</v>
+      </c>
+      <c r="T48" s="110">
+        <v>6.6746674701315607</v>
+      </c>
+      <c r="U48" s="111">
+        <v>8.9985447533174057</v>
+      </c>
     </row>
     <row r="49" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="83"/>
+      <c r="A49" s="77"/>
       <c r="B49" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="17"/>
+      <c r="C49" s="109">
+        <v>91.32447121035851</v>
+      </c>
+      <c r="D49" s="110">
+        <v>91.3333337561062</v>
+      </c>
+      <c r="E49" s="110">
+        <v>89.986891432474394</v>
+      </c>
+      <c r="F49" s="110">
+        <v>82.970355841172378</v>
+      </c>
+      <c r="G49" s="110">
+        <v>77.728293483681654</v>
+      </c>
+      <c r="H49" s="110">
+        <v>51.252252971490805</v>
+      </c>
+      <c r="I49" s="111">
+        <v>40.628409369355779</v>
+      </c>
       <c r="J49" s="4"/>
       <c r="K49" s="3"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="83"/>
+      <c r="M49" s="77"/>
       <c r="N49" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="16"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="17"/>
+      <c r="O49" s="109">
+        <v>4.5275458491527303</v>
+      </c>
+      <c r="P49" s="110">
+        <v>4.2747573588166334</v>
+      </c>
+      <c r="Q49" s="110">
+        <v>4.4686421394859934</v>
+      </c>
+      <c r="R49" s="110">
+        <v>5.5574343091824403</v>
+      </c>
+      <c r="S49" s="110">
+        <v>6.3901949395400921</v>
+      </c>
+      <c r="T49" s="110">
+        <v>4.9979009615131131</v>
+      </c>
+      <c r="U49" s="111">
+        <v>4.6208486745488377</v>
+      </c>
     </row>
     <row r="50" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="83"/>
+      <c r="A50" s="77"/>
       <c r="B50" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="17"/>
+      <c r="C50" s="109">
+        <v>91.872079363951016</v>
+      </c>
+      <c r="D50" s="110">
+        <v>91.684900567356891</v>
+      </c>
+      <c r="E50" s="110">
+        <v>91.380966800670592</v>
+      </c>
+      <c r="F50" s="110">
+        <v>89.858157735134256</v>
+      </c>
+      <c r="G50" s="110">
+        <v>85.956224613701878</v>
+      </c>
+      <c r="H50" s="110">
+        <v>67.001420055173739</v>
+      </c>
+      <c r="I50" s="111">
+        <v>52.38775340867182</v>
+      </c>
       <c r="J50" s="4"/>
       <c r="K50" s="3"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="83"/>
+      <c r="M50" s="77"/>
       <c r="N50" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="O50" s="16"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="17"/>
+      <c r="O50" s="109">
+        <v>3.995248390871974</v>
+      </c>
+      <c r="P50" s="110">
+        <v>3.9773804093196805</v>
+      </c>
+      <c r="Q50" s="110">
+        <v>3.947656073981153</v>
+      </c>
+      <c r="R50" s="110">
+        <v>3.7871846273753924</v>
+      </c>
+      <c r="S50" s="110">
+        <v>4.6030680163158832</v>
+      </c>
+      <c r="T50" s="110">
+        <v>9.7860097008678171</v>
+      </c>
+      <c r="U50" s="111">
+        <v>13.428047192917811</v>
+      </c>
     </row>
     <row r="51" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="83"/>
+      <c r="A51" s="77"/>
       <c r="B51" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="17"/>
+      <c r="C51" s="109">
+        <v>91.422732210087531</v>
+      </c>
+      <c r="D51" s="110">
+        <v>91.628764604827211</v>
+      </c>
+      <c r="E51" s="110">
+        <v>89.843906269406475</v>
+      </c>
+      <c r="F51" s="110">
+        <v>81.866384471789445</v>
+      </c>
+      <c r="G51" s="110">
+        <v>76.308676619695916</v>
+      </c>
+      <c r="H51" s="110">
+        <v>50.964103346303737</v>
+      </c>
+      <c r="I51" s="111">
+        <v>42.983128487116161</v>
+      </c>
       <c r="J51" s="4"/>
       <c r="K51" s="3"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="83"/>
+      <c r="M51" s="77"/>
       <c r="N51" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="O51" s="16"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="17"/>
+      <c r="O51" s="109">
+        <v>3.917177900536299</v>
+      </c>
+      <c r="P51" s="110">
+        <v>4.0890601272961096</v>
+      </c>
+      <c r="Q51" s="110">
+        <v>4.3937083258425353</v>
+      </c>
+      <c r="R51" s="110">
+        <v>6.1123504217632805</v>
+      </c>
+      <c r="S51" s="110">
+        <v>6.7941736801169661</v>
+      </c>
+      <c r="T51" s="110">
+        <v>5.5260013746794829</v>
+      </c>
+      <c r="U51" s="111">
+        <v>7.6558181721771588</v>
+      </c>
     </row>
     <row r="52" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="83"/>
+      <c r="A52" s="77"/>
       <c r="B52" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="17"/>
+      <c r="C52" s="109">
+        <v>90.985844496554918</v>
+      </c>
+      <c r="D52" s="110">
+        <v>91.355333965943203</v>
+      </c>
+      <c r="E52" s="110">
+        <v>90.056686676188946</v>
+      </c>
+      <c r="F52" s="110">
+        <v>84.819033215472516</v>
+      </c>
+      <c r="G52" s="110">
+        <v>77.063476400804475</v>
+      </c>
+      <c r="H52" s="110">
+        <v>51.089038185296396</v>
+      </c>
+      <c r="I52" s="111">
+        <v>40.779942796794074</v>
+      </c>
       <c r="J52" s="4"/>
       <c r="K52" s="3"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="83"/>
+      <c r="M52" s="77"/>
       <c r="N52" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="O52" s="16"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="17"/>
+      <c r="O52" s="109">
+        <v>4.3376511535473963</v>
+      </c>
+      <c r="P52" s="110">
+        <v>4.420312980473601</v>
+      </c>
+      <c r="Q52" s="110">
+        <v>4.6011804213694694</v>
+      </c>
+      <c r="R52" s="110">
+        <v>4.8992778070368752</v>
+      </c>
+      <c r="S52" s="110">
+        <v>5.342884708835431</v>
+      </c>
+      <c r="T52" s="110">
+        <v>5.5127562295818278</v>
+      </c>
+      <c r="U52" s="111">
+        <v>3.8668405271495185</v>
+      </c>
     </row>
     <row r="53" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="84"/>
+      <c r="A53" s="78"/>
       <c r="B53" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="20"/>
+      <c r="C53" s="112">
+        <v>92.379552522916796</v>
+      </c>
+      <c r="D53" s="113">
+        <v>92.215437471126776</v>
+      </c>
+      <c r="E53" s="113">
+        <v>91.043663385699574</v>
+      </c>
+      <c r="F53" s="113">
+        <v>86.687476792735367</v>
+      </c>
+      <c r="G53" s="113">
+        <v>79.006329272114002</v>
+      </c>
+      <c r="H53" s="113">
+        <v>52.267000146538933</v>
+      </c>
+      <c r="I53" s="114">
+        <v>38.860887110761873</v>
+      </c>
       <c r="J53" s="4"/>
       <c r="K53" s="3"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="84"/>
+      <c r="M53" s="78"/>
       <c r="N53" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="O53" s="18"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="20"/>
+      <c r="O53" s="112">
+        <v>3.8077987010870333</v>
+      </c>
+      <c r="P53" s="113">
+        <v>4.1308262664839095</v>
+      </c>
+      <c r="Q53" s="113">
+        <v>4.0791905598095859</v>
+      </c>
+      <c r="R53" s="113">
+        <v>4.4649557295204971</v>
+      </c>
+      <c r="S53" s="113">
+        <v>5.6075703811769424</v>
+      </c>
+      <c r="T53" s="113">
+        <v>5.464688035560016</v>
+      </c>
+      <c r="U53" s="114">
+        <v>3.3957160684845333</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M38:M44"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M20:M26"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M11:M17"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M19:U19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A47:A53"/>
+    <mergeCell ref="M47:M53"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="M37:U37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="M46:U46"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="A10:I10"/>
@@ -6205,31 +9765,6 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A47:A53"/>
-    <mergeCell ref="M47:M53"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="M37:U37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M20:M26"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M11:M17"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="M46:U46"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M38:M44"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M19:U19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="A19:I19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A30">
@@ -6267,17 +9802,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A35">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6349,6 +9884,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:H4">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -6390,26 +9945,6 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6441,27 +9976,27 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="253">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="254">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="255">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="254">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="253">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6521,17 +10056,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:I26">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6555,6 +10090,66 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J4">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -6576,66 +10171,6 @@
       </colorScale>
     </cfRule>
     <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6693,17 +10228,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6749,17 +10284,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M31">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
